--- a/Datos/Decklists.xlsx
+++ b/Datos/Decklists.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72ABE100-EAD9-48BD-A723-CC1611323E37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A54EB7A-EC75-422A-96B2-5F9E3BB6D741}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="8925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -308,7 +308,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,13 +316,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -337,8 +359,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -621,17 +649,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Datos/Decklists.xlsx
+++ b/Datos/Decklists.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A54EB7A-EC75-422A-96B2-5F9E3BB6D741}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAA9F6B-2ACB-40A4-BAD1-17F4AE813707}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="8925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,9 +106,6 @@
     <t>Selfless Spirit</t>
   </si>
   <si>
-    <t>Lena, Slefless Champion</t>
-  </si>
-  <si>
     <t>Akiri, Fearless Voyager</t>
   </si>
   <si>
@@ -157,9 +154,6 @@
     <t>Mana Crypt</t>
   </si>
   <si>
-    <t>Dockside Extorsionist</t>
-  </si>
-  <si>
     <t>Legion's Landing</t>
   </si>
   <si>
@@ -223,9 +217,6 @@
     <t>Sol Ring</t>
   </si>
   <si>
-    <t>Mortapod</t>
-  </si>
-  <si>
     <t>Command Tower</t>
   </si>
   <si>
@@ -302,6 +293,15 @@
   </si>
   <si>
     <t>Wooded Foothills</t>
+  </si>
+  <si>
+    <t>Mortarpod</t>
+  </si>
+  <si>
+    <t>Dockside Extortionist</t>
+  </si>
+  <si>
+    <t>Lena, Selfless Champion</t>
   </si>
 </sst>
 </file>
@@ -649,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,362 +800,362 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Datos/Decklists.xlsx
+++ b/Datos/Decklists.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dfernandez\Documents\Proyectos_Python\Commander\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4795BD8-E020-4D98-AC1A-E7CE9E5A3BC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383B19A5-9E39-4082-88C8-EC5EEA3EA32F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,567 +20,483 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="187">
-  <si>
-    <t>lista[0].split('.')[0]</t>
-  </si>
-  <si>
-    <t>Winota, Joiner of Forces</t>
-  </si>
-  <si>
-    <t>1 Walking Ballista</t>
-  </si>
-  <si>
-    <t>Sram, Senior Edificer</t>
-  </si>
-  <si>
-    <t>1 Aether Chaser</t>
-  </si>
-  <si>
-    <t>Avalanche Riders</t>
-  </si>
-  <si>
-    <t>1 Myr Retriever</t>
-  </si>
-  <si>
-    <t>Silverblade Paladin</t>
-  </si>
-  <si>
-    <t>1 Snapcaster Mage</t>
-  </si>
-  <si>
-    <t>Oust</t>
-  </si>
-  <si>
-    <t>1 Spellskite</t>
-  </si>
-  <si>
-    <t>Fervent Champion</t>
-  </si>
-  <si>
-    <t>1 Emry, Lurker of the Loch</t>
-  </si>
-  <si>
-    <t>Goblin Rabblemaster</t>
-  </si>
-  <si>
-    <t>1 Laboratory Maniac</t>
-  </si>
-  <si>
-    <t>Magus of the Moon</t>
-  </si>
-  <si>
-    <t>1 Mirran Spy</t>
-  </si>
-  <si>
-    <t>Spirit of the Labyrinth</t>
-  </si>
-  <si>
-    <t>1 Sai, Master Thopterist</t>
-  </si>
-  <si>
-    <t>Sword of Feast and Famine</t>
-  </si>
-  <si>
-    <t>1 Scrap Trawler</t>
-  </si>
-  <si>
-    <t>Dispatch</t>
-  </si>
-  <si>
-    <t>1 Spellseeker</t>
-  </si>
-  <si>
-    <t>Bruse Tarl, Boorish Herder</t>
-  </si>
-  <si>
-    <t>1 Trinket Mage</t>
-  </si>
-  <si>
-    <t>Sword of Body and Mind</t>
-  </si>
-  <si>
-    <t>1 Trophy Mage</t>
-  </si>
-  <si>
-    <t>Geist-Honored Monk</t>
-  </si>
-  <si>
-    <t>1 Urza, Lord High Artificer</t>
-  </si>
-  <si>
-    <t>Ancestral Blade</t>
-  </si>
-  <si>
-    <t>1 Pact of Negation</t>
-  </si>
-  <si>
-    <t>Skullclamp</t>
-  </si>
-  <si>
-    <t>1 Brainstorm</t>
-  </si>
-  <si>
-    <t>Leonin Arbiter</t>
-  </si>
-  <si>
-    <t>1 Dispel</t>
-  </si>
-  <si>
-    <t>Umezawa's Jitte</t>
-  </si>
-  <si>
-    <t>1 Force Spike</t>
-  </si>
-  <si>
-    <t>Abrade</t>
-  </si>
-  <si>
-    <t>1 Mental Misstep</t>
-  </si>
-  <si>
-    <t>Stoneforge Mystic</t>
-  </si>
-  <si>
-    <t>1 Mystical Tutor</t>
-  </si>
-  <si>
-    <t>Puresteel Paladin</t>
-  </si>
-  <si>
-    <t>1 Ponder</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="159">
+  <si>
+    <t>Emry, Lurker of the Loch</t>
+  </si>
+  <si>
+    <t>Leovold, Emissary of Trest</t>
+  </si>
+  <si>
+    <t>Walking Ballista</t>
+  </si>
+  <si>
+    <t>Birds of Paradise</t>
+  </si>
+  <si>
+    <t>Aether Chaser</t>
+  </si>
+  <si>
+    <t>Deathrite Shaman</t>
+  </si>
+  <si>
+    <t>Myr Retriever</t>
+  </si>
+  <si>
+    <t>Elves of Deep Shadow</t>
+  </si>
+  <si>
+    <t>Snapcaster Mage</t>
+  </si>
+  <si>
+    <t>Elvish Mystic</t>
+  </si>
+  <si>
+    <t>Spellskite</t>
+  </si>
+  <si>
+    <t>Fyndhorn Elves</t>
+  </si>
+  <si>
+    <t>Llanowar Elves</t>
+  </si>
+  <si>
+    <t>Laboratory Maniac</t>
+  </si>
+  <si>
+    <t>Sylvan Safekeeper</t>
+  </si>
+  <si>
+    <t>Mirran Spy</t>
+  </si>
+  <si>
+    <t>Baleful Strix</t>
+  </si>
+  <si>
+    <t>Sai, Master Thopterist</t>
+  </si>
+  <si>
+    <t>Bloom Tender</t>
+  </si>
+  <si>
+    <t>Scrap Trawler</t>
+  </si>
+  <si>
+    <t>Spellseeker</t>
+  </si>
+  <si>
+    <t>Eternal Witness</t>
+  </si>
+  <si>
+    <t>Trinket Mage</t>
+  </si>
+  <si>
+    <t>Hullbreacher</t>
+  </si>
+  <si>
+    <t>Trophy Mage</t>
+  </si>
+  <si>
+    <t>Urza, Lord High Artificer</t>
+  </si>
+  <si>
+    <t>Opposition Agent</t>
+  </si>
+  <si>
+    <t>Pact of Negation</t>
+  </si>
+  <si>
+    <t>Brainstorm</t>
+  </si>
+  <si>
+    <t>Vendilion Clique</t>
+  </si>
+  <si>
+    <t>Dispel</t>
+  </si>
+  <si>
+    <t>Notion Thief</t>
+  </si>
+  <si>
+    <t>Force Spike</t>
+  </si>
+  <si>
+    <t>Venser, Shaper Savant</t>
+  </si>
+  <si>
+    <t>Mental Misstep</t>
+  </si>
+  <si>
+    <t>Prophet of Kruphix</t>
+  </si>
+  <si>
+    <t>Mystical Tutor</t>
+  </si>
+  <si>
+    <t>Teferi, Mage of Zhalfir</t>
+  </si>
+  <si>
+    <t>Ponder</t>
+  </si>
+  <si>
+    <t>Ashiok, Dream Render</t>
+  </si>
+  <si>
+    <t>Pongify</t>
+  </si>
+  <si>
+    <t>Narset, Parter of Veils</t>
+  </si>
+  <si>
+    <t>Preordain</t>
+  </si>
+  <si>
+    <t>Oko, Thief of Crowns</t>
+  </si>
+  <si>
+    <t>Rapid Hybridization</t>
+  </si>
+  <si>
+    <t>Jace, the Mind Sculptor</t>
+  </si>
+  <si>
+    <t>Serum Visions</t>
+  </si>
+  <si>
+    <t>Spell Pierce</t>
+  </si>
+  <si>
+    <t>Green Sun's Zenith</t>
+  </si>
+  <si>
+    <t>Swan Song</t>
+  </si>
+  <si>
+    <t>Arcane Denial</t>
+  </si>
+  <si>
+    <t>Counterspell</t>
+  </si>
+  <si>
+    <t>Cyclonic Rift</t>
+  </si>
+  <si>
+    <t>Daze</t>
+  </si>
+  <si>
+    <t>Vampiric Tutor</t>
+  </si>
+  <si>
+    <t>Delay</t>
+  </si>
+  <si>
+    <t>Veil of Summer</t>
+  </si>
+  <si>
+    <t>Logic Knot</t>
+  </si>
+  <si>
+    <t>Abrupt Decay</t>
+  </si>
+  <si>
+    <t>Memory Lapse</t>
+  </si>
+  <si>
+    <t>Merchant Scroll</t>
+  </si>
+  <si>
+    <t>Assassin's Trophy</t>
+  </si>
+  <si>
+    <t>Muddle the Mixture</t>
+  </si>
+  <si>
+    <t>Negate</t>
+  </si>
+  <si>
+    <t>Fabricate</t>
+  </si>
+  <si>
+    <t>Fierce Guardianship</t>
+  </si>
+  <si>
+    <t>Demonic Tutor</t>
+  </si>
+  <si>
+    <t>Whir of Invention</t>
+  </si>
+  <si>
+    <t>Drown in the Loch</t>
+  </si>
+  <si>
+    <t>Wizard's Retort</t>
+  </si>
+  <si>
+    <t>Finale of Devastation</t>
+  </si>
+  <si>
+    <t>Force of Will</t>
+  </si>
+  <si>
+    <t>Sea Gate Restoration</t>
+  </si>
+  <si>
+    <t>Dig Through Time</t>
+  </si>
+  <si>
+    <t>Nature's Lore</t>
+  </si>
+  <si>
+    <t>Treasure Cruise</t>
+  </si>
+  <si>
+    <t>Chrome Mox</t>
+  </si>
+  <si>
+    <t>Three Visits</t>
+  </si>
+  <si>
+    <t>Everflowing Chalice</t>
+  </si>
+  <si>
+    <t>Day's Undoing</t>
+  </si>
+  <si>
+    <t>Lodestone Bauble</t>
+  </si>
+  <si>
+    <t>Dream Fracture</t>
+  </si>
+  <si>
+    <t>Lotus Petal</t>
+  </si>
+  <si>
+    <t>Mana Crypt</t>
+  </si>
+  <si>
+    <t>Hero's Downfall</t>
+  </si>
+  <si>
+    <t>Mishra's Bauble</t>
+  </si>
+  <si>
+    <t>Maelstrom Pulse</t>
+  </si>
+  <si>
+    <t>Mox Amber</t>
+  </si>
+  <si>
+    <t>Toxic Deluge</t>
+  </si>
+  <si>
+    <t>Mox Diamond</t>
+  </si>
+  <si>
+    <t>Windfall</t>
   </si>
   <si>
     <t>Mox Opal</t>
   </si>
   <si>
-    <t>1 Pongify</t>
-  </si>
-  <si>
-    <t>Embercleave</t>
-  </si>
-  <si>
-    <t>1 Preordain</t>
-  </si>
-  <si>
-    <t>Legion Warboss</t>
-  </si>
-  <si>
-    <t>1 Rapid Hybridization</t>
-  </si>
-  <si>
-    <t>Signal Pest</t>
-  </si>
-  <si>
-    <t>1 Serum Visions</t>
-  </si>
-  <si>
-    <t>Goldnight Commander</t>
-  </si>
-  <si>
-    <t>1 Spell Pierce</t>
-  </si>
-  <si>
-    <t>Phyrexian Revoker</t>
-  </si>
-  <si>
-    <t>1 Swan Song</t>
-  </si>
-  <si>
-    <t>Selfless Spirit</t>
-  </si>
-  <si>
-    <t>1 Arcane Denial</t>
-  </si>
-  <si>
-    <t>Lena, Selfless Champion</t>
-  </si>
-  <si>
-    <t>1 Counterspell</t>
-  </si>
-  <si>
-    <t>Akiri, Fearless Voyager</t>
-  </si>
-  <si>
-    <t>1 Cyclonic Rift</t>
-  </si>
-  <si>
-    <t>Anafenza, Kin-Tree Spirit</t>
-  </si>
-  <si>
-    <t>1 Daze</t>
-  </si>
-  <si>
-    <t>Sword of Fire and Ice</t>
-  </si>
-  <si>
-    <t>1 Delay</t>
-  </si>
-  <si>
-    <t>Steelshaper's Gift</t>
-  </si>
-  <si>
-    <t>1 Logic Knot</t>
-  </si>
-  <si>
-    <t>Ethersworn Canonist</t>
-  </si>
-  <si>
-    <t>1 Memory Lapse</t>
-  </si>
-  <si>
-    <t>Open the Armory</t>
-  </si>
-  <si>
-    <t>1 Merchant Scroll</t>
-  </si>
-  <si>
-    <t>Goblin Cratermaker</t>
-  </si>
-  <si>
-    <t>1 Muddle the Mixture</t>
-  </si>
-  <si>
-    <t>Sword of Light and Shadow</t>
-  </si>
-  <si>
-    <t>1 Negate</t>
-  </si>
-  <si>
-    <t>Lotus petal</t>
-  </si>
-  <si>
-    <t>1 Fabricate</t>
-  </si>
-  <si>
-    <t>Bomat Courier</t>
-  </si>
-  <si>
-    <t>1 Fierce Guardianship</t>
-  </si>
-  <si>
-    <t>Drannith Magistrate</t>
-  </si>
-  <si>
-    <t>1 Whir of Invention</t>
-  </si>
-  <si>
-    <t>Goblin Tinkerer</t>
-  </si>
-  <si>
-    <t>1 Wizard's Retort</t>
-  </si>
-  <si>
-    <t>Blood Moon</t>
-  </si>
-  <si>
-    <t>1 Force of Will</t>
-  </si>
-  <si>
-    <t>Thalia, Guardian of Thraben</t>
-  </si>
-  <si>
-    <t>1 Sea Gate Restoration</t>
-  </si>
-  <si>
-    <t>Eidolon of Rhetoric</t>
-  </si>
-  <si>
-    <t>1 Dig Through Time</t>
-  </si>
-  <si>
-    <t>Mana Crypt</t>
-  </si>
-  <si>
-    <t>1 Treasure Cruise</t>
-  </si>
-  <si>
-    <t>Dockside Extortionist</t>
-  </si>
-  <si>
-    <t>1 Chrome Mox</t>
-  </si>
-  <si>
-    <t>Legion's Landing</t>
-  </si>
-  <si>
-    <t>1 Everflowing Chalice</t>
-  </si>
-  <si>
-    <t>Mask of Immolation</t>
-  </si>
-  <si>
-    <t>1 Lodestone Bauble</t>
-  </si>
-  <si>
-    <t>Red Elemental Blast</t>
-  </si>
-  <si>
-    <t>1 Lotus Petal</t>
-  </si>
-  <si>
-    <t>Skyclave Apparition</t>
-  </si>
-  <si>
-    <t>1 Mana Crypt</t>
-  </si>
-  <si>
-    <t>Gamble</t>
-  </si>
-  <si>
-    <t>1 Mishra's Bauble</t>
-  </si>
-  <si>
-    <t>Aven Mindcensor</t>
-  </si>
-  <si>
-    <t>1 Mox Amber</t>
-  </si>
-  <si>
-    <t>Palace Jailer</t>
-  </si>
-  <si>
-    <t>1 Mox Diamond</t>
-  </si>
-  <si>
-    <t>Armory Automaton</t>
-  </si>
-  <si>
-    <t>1 Mox Opal</t>
-  </si>
-  <si>
-    <t>Swords to Plowshares</t>
-  </si>
-  <si>
-    <t>1 Tormod's Crypt</t>
-  </si>
-  <si>
-    <t>Archon of Emeria</t>
-  </si>
-  <si>
-    <t>1 Urza's Bauble</t>
-  </si>
-  <si>
-    <t>Enlightened Tutor</t>
-  </si>
-  <si>
-    <t>1 Welding Jar</t>
-  </si>
-  <si>
-    <t>Godo, Bandit Warlord</t>
-  </si>
-  <si>
-    <t>1 Aether Spellbomb</t>
-  </si>
-  <si>
-    <t>Resolute Blademaster</t>
-  </si>
-  <si>
-    <t>1 Chromatic Sphere</t>
-  </si>
-  <si>
-    <t>Angrath's Marauders</t>
-  </si>
-  <si>
-    <t>1 Chromatic Star</t>
-  </si>
-  <si>
-    <t>Path to Exile</t>
-  </si>
-  <si>
-    <t>1 Conjurer's Bauble</t>
-  </si>
-  <si>
-    <t>Stone Haven Outfitter</t>
-  </si>
-  <si>
-    <t>1 Expedition Map</t>
-  </si>
-  <si>
-    <t>Thalia, Heretic Cathar</t>
-  </si>
-  <si>
-    <t>1 Mana Vault</t>
-  </si>
-  <si>
-    <t>Zealous Conscripts</t>
-  </si>
-  <si>
-    <t>1 Manifold Key</t>
-  </si>
-  <si>
-    <t>Chrome Mox</t>
-  </si>
-  <si>
-    <t>1 Sol Ring</t>
-  </si>
-  <si>
-    <t>Leonin Relic-Warder</t>
-  </si>
-  <si>
-    <t>1 Voltaic Key</t>
+    <t>Damnation</t>
+  </si>
+  <si>
+    <t>Tormod's Crypt</t>
+  </si>
+  <si>
+    <t>Deadly Rollick</t>
+  </si>
+  <si>
+    <t>Urza's Bauble</t>
+  </si>
+  <si>
+    <t>Mystical Teachings</t>
+  </si>
+  <si>
+    <t>Welding Jar</t>
+  </si>
+  <si>
+    <t>Aether Spellbomb</t>
+  </si>
+  <si>
+    <t>Mystic Confluence</t>
+  </si>
+  <si>
+    <t>Chromatic Sphere</t>
+  </si>
+  <si>
+    <t>Time Spiral</t>
+  </si>
+  <si>
+    <t>Chromatic Star</t>
+  </si>
+  <si>
+    <t>Conjurer's Bauble</t>
+  </si>
+  <si>
+    <t>Expedition Map</t>
+  </si>
+  <si>
+    <t>Mana Vault</t>
+  </si>
+  <si>
+    <t>Manifold Key</t>
   </si>
   <si>
     <t>Sol Ring</t>
   </si>
   <si>
-    <t>1 Arcane Signet</t>
-  </si>
-  <si>
-    <t>Mortarpod</t>
-  </si>
-  <si>
-    <t>1 Grim Monolith</t>
+    <t>Voltaic Key</t>
+  </si>
+  <si>
+    <t>Arcane Signet</t>
+  </si>
+  <si>
+    <t>Fellwar Stone</t>
+  </si>
+  <si>
+    <t>Grim Monolith</t>
+  </si>
+  <si>
+    <t>Teferi's Puzzle Box</t>
+  </si>
+  <si>
+    <t>Mind Stone</t>
+  </si>
+  <si>
+    <t>Bayou</t>
+  </si>
+  <si>
+    <t>Commander's Sphere</t>
+  </si>
+  <si>
+    <t>Bloodstained Mire</t>
+  </si>
+  <si>
+    <t>Krark-Clan Ironworks</t>
+  </si>
+  <si>
+    <t>Breeding Pool</t>
+  </si>
+  <si>
+    <t>Paradox Engine</t>
+  </si>
+  <si>
+    <t>Cavern of Souls</t>
+  </si>
+  <si>
+    <t>Academy Ruins</t>
+  </si>
+  <si>
+    <t>Clearwater Pathway</t>
+  </si>
+  <si>
+    <t>Ancient Tomb</t>
   </si>
   <si>
     <t>Command Tower</t>
   </si>
   <si>
-    <t>1 Mind Stone</t>
-  </si>
-  <si>
-    <t>Sacred Foundry</t>
-  </si>
-  <si>
-    <t>1 Commander's Sphere</t>
-  </si>
-  <si>
-    <t>Mountain</t>
-  </si>
-  <si>
-    <t>1 Krark-Clan Ironworks</t>
-  </si>
-  <si>
-    <t>1 Paradox Engine</t>
-  </si>
-  <si>
-    <t>1 Academy Ruins</t>
-  </si>
-  <si>
-    <t>Plains</t>
-  </si>
-  <si>
-    <t>1 Ancient Tomb</t>
-  </si>
-  <si>
-    <t>1 Blast Zone</t>
-  </si>
-  <si>
-    <t>1 Cavern of Souls</t>
-  </si>
-  <si>
-    <t>1 Cephalid Coliseum</t>
-  </si>
-  <si>
-    <t>1 Darksteel Citadel</t>
+    <t>Blast Zone</t>
+  </si>
+  <si>
+    <t>Dryad Arbor</t>
+  </si>
+  <si>
+    <t>Flooded Strand</t>
+  </si>
+  <si>
+    <t>Cephalid Coliseum</t>
+  </si>
+  <si>
+    <t>Forest</t>
+  </si>
+  <si>
+    <t>Darksteel Citadel</t>
+  </si>
+  <si>
+    <t>Geier Reach Sanitarium</t>
+  </si>
+  <si>
+    <t>Island</t>
+  </si>
+  <si>
+    <t>Inventors' Fair</t>
+  </si>
+  <si>
+    <t>Marsh Flats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minamo, School at Water's Edge  </t>
+  </si>
+  <si>
+    <t>Misty Rainforest</t>
+  </si>
+  <si>
+    <t>Nurturing Peatland</t>
+  </si>
+  <si>
+    <t>Mystic Sanctuary</t>
+  </si>
+  <si>
+    <t>Overgrown Tomb</t>
+  </si>
+  <si>
+    <t>Polluted Delta</t>
+  </si>
+  <si>
+    <t>Prismatic Vista</t>
+  </si>
+  <si>
+    <t>Riptide Laboratory</t>
+  </si>
+  <si>
+    <t>Reflecting Pool</t>
   </si>
   <si>
     <t>Scalding Tarn</t>
   </si>
   <si>
-    <t>1 Flooded Strand</t>
-  </si>
-  <si>
-    <t>Ancient Tomb</t>
-  </si>
-  <si>
-    <t>1 Inventors' Fair</t>
-  </si>
-  <si>
-    <t>Cavern of Souls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 Minamo, School at Water's Edge  </t>
-  </si>
-  <si>
-    <t>Ancient Den</t>
-  </si>
-  <si>
-    <t>1 Misty Rainforest</t>
-  </si>
-  <si>
-    <t>Eiganjo Castle</t>
-  </si>
-  <si>
-    <t>1 Mystic Sanctuary</t>
-  </si>
-  <si>
-    <t>Rugged Prairie</t>
-  </si>
-  <si>
-    <t>1 Polluted Delta</t>
+    <t>Seat of the Synod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tectonic Edge  </t>
+  </si>
+  <si>
+    <t>Snow-Covered Forest</t>
+  </si>
+  <si>
+    <t>Wasteland</t>
+  </si>
+  <si>
+    <t>Snow-Covered Island</t>
+  </si>
+  <si>
+    <t>Snow-Covered Swamp</t>
+  </si>
+  <si>
+    <t>Swamp</t>
+  </si>
+  <si>
+    <t>Tropical Island</t>
+  </si>
+  <si>
+    <t>Underground Sea</t>
+  </si>
+  <si>
+    <t>Verdant Catacombs</t>
+  </si>
+  <si>
+    <t>Watery Grave</t>
   </si>
   <si>
     <t>Windswept Heath</t>
   </si>
   <si>
-    <t>1 Prismatic Vista</t>
-  </si>
-  <si>
-    <t>Plateau</t>
-  </si>
-  <si>
-    <t>1 Riptide Laboratory</t>
-  </si>
-  <si>
-    <t>Mishra's Factory</t>
-  </si>
-  <si>
-    <t>1 Scalding Tarn</t>
-  </si>
-  <si>
-    <t>Battlefield Forge</t>
-  </si>
-  <si>
-    <t>1 Seat of the Synod</t>
-  </si>
-  <si>
-    <t>Flooded Strand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 Tectonic Edge  </t>
-  </si>
-  <si>
-    <t>Wasteland</t>
-  </si>
-  <si>
-    <t>1 Wasteland</t>
-  </si>
-  <si>
-    <t>Bloodstained Mire</t>
-  </si>
-  <si>
-    <t>1 Island</t>
-  </si>
-  <si>
-    <t>Arid Mesa</t>
-  </si>
-  <si>
-    <t>Darksteel Citadel</t>
-  </si>
-  <si>
-    <t>Flagstones of Trokair</t>
-  </si>
-  <si>
-    <t>Clifftop Retreat</t>
-  </si>
-  <si>
-    <t>Great Furnace</t>
-  </si>
-  <si>
-    <t>1 Snow-Covered Island</t>
-  </si>
-  <si>
-    <t>Inspiring Vantage</t>
-  </si>
-  <si>
-    <t>Marsh Flats</t>
-  </si>
-  <si>
-    <t>Needleverge Pathway // Pillarverge Pathway</t>
-  </si>
-  <si>
     <t>Wooded Foothills</t>
+  </si>
+  <si>
+    <t>Yavimaya Hollow</t>
   </si>
 </sst>
 </file>
@@ -946,66 +862,66 @@
   <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -1040,727 +956,727 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
         <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
         <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B51" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B52" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B53" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B54" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B55" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B56" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="B57" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B58" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B59" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="B60" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="B61" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="B62" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="B63" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="B64" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="B65" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="B66" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="B67" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="B68" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="B69" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="B70" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="B71" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="B72" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="B73" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="B74" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="B75" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B76" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="B77" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="B78" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="B79" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="B80" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="B81" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="B82" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="B83" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="B84" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="B85" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="B86" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="B87" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="B88" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="B89" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="B90" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="B91" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="B92" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="B93" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>178</v>
+        <v>132</v>
       </c>
       <c r="B94" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>179</v>
+        <v>132</v>
       </c>
       <c r="B95" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>180</v>
+        <v>132</v>
       </c>
       <c r="B96" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="B97" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="B98" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="B99" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="B100" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="B101" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/Datos/Decklists.xlsx
+++ b/Datos/Decklists.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dfernandez\Documents\Proyectos_Python\Commander\Datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\Proyectos_Python\Commander\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383B19A5-9E39-4082-88C8-EC5EEA3EA32F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9645ECD-1B05-4269-8D22-92ABEC59F6C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="383">
   <si>
     <t>Emry, Lurker of the Loch</t>
   </si>
@@ -28,139 +28,340 @@
     <t>Leovold, Emissary of Trest</t>
   </si>
   <si>
+    <t>Narset, Enlightened Master</t>
+  </si>
+  <si>
+    <t>Winota, Joiner of Forces</t>
+  </si>
+  <si>
+    <t>Liesa, Shroud of Dusk</t>
+  </si>
+  <si>
     <t>Walking Ballista</t>
   </si>
   <si>
     <t>Birds of Paradise</t>
   </si>
   <si>
+    <t>Trinket Mage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walking Ballista  </t>
+  </si>
+  <si>
     <t>Aether Chaser</t>
   </si>
   <si>
     <t>Deathrite Shaman</t>
   </si>
   <si>
+    <t>Sram, Senior Edificer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giver of Runes  </t>
+  </si>
+  <si>
     <t>Myr Retriever</t>
   </si>
   <si>
     <t>Elves of Deep Shadow</t>
   </si>
   <si>
+    <t>Dack Fayden</t>
+  </si>
+  <si>
+    <t>Avalanche Riders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mother of Runes  </t>
+  </si>
+  <si>
     <t>Snapcaster Mage</t>
   </si>
   <si>
     <t>Elvish Mystic</t>
   </si>
   <si>
+    <t>Narset, Parter of Veils</t>
+  </si>
+  <si>
+    <t>Silverblade Paladin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serra Ascendant  </t>
+  </si>
+  <si>
     <t>Spellskite</t>
   </si>
   <si>
     <t>Fyndhorn Elves</t>
   </si>
   <si>
+    <t>Teferi, Time Raveler</t>
+  </si>
+  <si>
+    <t>Oust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drannith Magistrate  </t>
+  </si>
+  <si>
     <t>Llanowar Elves</t>
   </si>
   <si>
+    <t>Chandra, Torch of Defiance</t>
+  </si>
+  <si>
+    <t>Fervent Champion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grand Abolisher  </t>
+  </si>
+  <si>
     <t>Laboratory Maniac</t>
   </si>
   <si>
     <t>Sylvan Safekeeper</t>
   </si>
   <si>
+    <t>Jace, the Mind Sculptor</t>
+  </si>
+  <si>
+    <t>Goblin Rabblemaster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stoneforge Mystic  </t>
+  </si>
+  <si>
     <t>Mirran Spy</t>
   </si>
   <si>
     <t>Baleful Strix</t>
   </si>
   <si>
+    <t>Ral, Izzet Viceroy</t>
+  </si>
+  <si>
+    <t>Magus of the Moon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archon of Emeria  </t>
+  </si>
+  <si>
     <t>Sai, Master Thopterist</t>
   </si>
   <si>
     <t>Bloom Tender</t>
   </si>
   <si>
+    <t>Teferi, Hero of Dominaria</t>
+  </si>
+  <si>
+    <t>Spirit of the Labyrinth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aven Mindcensor  </t>
+  </si>
+  <si>
     <t>Scrap Trawler</t>
   </si>
   <si>
+    <t>Karn Liberated</t>
+  </si>
+  <si>
+    <t>Sword of Feast and Famine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heliod, Sun-Crowned  </t>
+  </si>
+  <si>
     <t>Spellseeker</t>
   </si>
   <si>
     <t>Eternal Witness</t>
   </si>
   <si>
-    <t>Trinket Mage</t>
+    <t>Pact of Negation</t>
+  </si>
+  <si>
+    <t>Dispatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kambal, Consul of Allocation  </t>
   </si>
   <si>
     <t>Hullbreacher</t>
   </si>
   <si>
+    <t>Brainstorm</t>
+  </si>
+  <si>
+    <t>Bruse Tarl, Boorish Herder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kunoros, Hound of Athreos  </t>
+  </si>
+  <si>
     <t>Trophy Mage</t>
   </si>
   <si>
+    <t>Crimson Wisps</t>
+  </si>
+  <si>
+    <t>Sword of Body and Mind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lurrus of the Dream-Den  </t>
+  </si>
+  <si>
     <t>Urza, Lord High Artificer</t>
   </si>
   <si>
     <t>Opposition Agent</t>
   </si>
   <si>
-    <t>Pact of Negation</t>
-  </si>
-  <si>
-    <t>Brainstorm</t>
+    <t>Enlightened Tutor</t>
+  </si>
+  <si>
+    <t>Geist-Honored Monk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opposition Agent  </t>
+  </si>
+  <si>
+    <t>Expedite</t>
+  </si>
+  <si>
+    <t>Ancestral Blade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ranger-Captain of Eos  </t>
   </si>
   <si>
     <t>Vendilion Clique</t>
   </si>
   <si>
+    <t>Mystical Tutor</t>
+  </si>
+  <si>
+    <t>Skullclamp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recruiter of the Guard  </t>
+  </si>
+  <si>
     <t>Dispel</t>
   </si>
   <si>
     <t>Notion Thief</t>
   </si>
   <si>
+    <t>Path to Exile</t>
+  </si>
+  <si>
+    <t>Leonin Arbiter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resplendent Angel  </t>
+  </si>
+  <si>
     <t>Force Spike</t>
   </si>
   <si>
     <t>Venser, Shaper Savant</t>
   </si>
   <si>
+    <t>Ponder</t>
+  </si>
+  <si>
+    <t>Umezawa's Jitte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skyclave Apparition  </t>
+  </si>
+  <si>
     <t>Mental Misstep</t>
   </si>
   <si>
     <t>Prophet of Kruphix</t>
   </si>
   <si>
-    <t>Mystical Tutor</t>
+    <t>Preordain</t>
+  </si>
+  <si>
+    <t>Abrade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tymna the Weaver  </t>
   </si>
   <si>
     <t>Teferi, Mage of Zhalfir</t>
   </si>
   <si>
-    <t>Ponder</t>
+    <t>Pyroblast</t>
+  </si>
+  <si>
+    <t>Stoneforge Mystic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vito, Thorn of the Dusk Rose  </t>
   </si>
   <si>
     <t>Ashiok, Dream Render</t>
   </si>
   <si>
+    <t>Red Elemental Blast</t>
+  </si>
+  <si>
+    <t>Puresteel Paladin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crypt Ghast  </t>
+  </si>
+  <si>
     <t>Pongify</t>
   </si>
   <si>
-    <t>Narset, Parter of Veils</t>
-  </si>
-  <si>
-    <t>Preordain</t>
+    <t>Serum Visions</t>
+  </si>
+  <si>
+    <t>Mox Opal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keeper of the Accord  </t>
   </si>
   <si>
     <t>Oko, Thief of Crowns</t>
   </si>
   <si>
+    <t>Sleight of Hand</t>
+  </si>
+  <si>
+    <t>Embercleave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linvala, Keeper of Silence  </t>
+  </si>
+  <si>
     <t>Rapid Hybridization</t>
   </si>
   <si>
-    <t>Jace, the Mind Sculptor</t>
-  </si>
-  <si>
-    <t>Serum Visions</t>
+    <t>Swords to Plowshares</t>
+  </si>
+  <si>
+    <t>Legion Warboss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ranger of Eos  </t>
+  </si>
+  <si>
+    <t>Cyclonic Rift</t>
+  </si>
+  <si>
+    <t>Signal Pest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angel of Destiny  </t>
   </si>
   <si>
     <t>Spell Pierce</t>
@@ -169,16 +370,58 @@
     <t>Green Sun's Zenith</t>
   </si>
   <si>
+    <t>Council's Judgment</t>
+  </si>
+  <si>
+    <t>Goldnight Commander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liesa, Shroud of Dusk  </t>
+  </si>
+  <si>
     <t>Swan Song</t>
   </si>
   <si>
+    <t>Volcanic Fallout</t>
+  </si>
+  <si>
+    <t>Phyrexian Revoker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lyra Dawnbringer  </t>
+  </si>
+  <si>
     <t>Arcane Denial</t>
   </si>
   <si>
+    <t>Day of Judgment</t>
+  </si>
+  <si>
+    <t>Selfless Spirit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Felidar Sovereign  </t>
+  </si>
+  <si>
     <t>Counterspell</t>
   </si>
   <si>
-    <t>Cyclonic Rift</t>
+    <t>Wrath of God</t>
+  </si>
+  <si>
+    <t>Lena, Selfless Champion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajani, Strength of the Pride  </t>
+  </si>
+  <si>
+    <t>Capture of Jingzhou</t>
+  </si>
+  <si>
+    <t>Akiri, Fearless Voyager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dark Ritual  </t>
   </si>
   <si>
     <t>Daze</t>
@@ -187,67 +430,193 @@
     <t>Vampiric Tutor</t>
   </si>
   <si>
+    <t>Force of Will</t>
+  </si>
+  <si>
+    <t>Anafenza, Kin-Tree Spirit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enlightened Tutor  </t>
+  </si>
+  <si>
     <t>Delay</t>
   </si>
   <si>
     <t>Veil of Summer</t>
   </si>
   <si>
+    <t>Misdirection</t>
+  </si>
+  <si>
+    <t>Sword of Fire and Ice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Path to Exile  </t>
+  </si>
+  <si>
     <t>Logic Knot</t>
   </si>
   <si>
     <t>Abrupt Decay</t>
   </si>
   <si>
+    <t>Temporal Manipulation</t>
+  </si>
+  <si>
+    <t>Steelshaper's Gift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swords to Plowshares  </t>
+  </si>
+  <si>
     <t>Memory Lapse</t>
   </si>
   <si>
+    <t>Time Warp</t>
+  </si>
+  <si>
+    <t>Ethersworn Canonist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vampiric Tutor  </t>
+  </si>
+  <si>
     <t>Merchant Scroll</t>
   </si>
   <si>
     <t>Assassin's Trophy</t>
   </si>
   <si>
+    <t>Karn's Temporal Sundering</t>
+  </si>
+  <si>
+    <t>Open the Armory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demonic Tutor  </t>
+  </si>
+  <si>
     <t>Muddle the Mixture</t>
   </si>
   <si>
+    <t>Part the Waterveil</t>
+  </si>
+  <si>
+    <t>Goblin Cratermaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winds of Abandon  </t>
+  </si>
+  <si>
     <t>Negate</t>
   </si>
   <si>
+    <t>Terminus</t>
+  </si>
+  <si>
+    <t>Sword of Light and Shadow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agadeem's Awakening  </t>
+  </si>
+  <si>
     <t>Fabricate</t>
   </si>
   <si>
+    <t>Walk the Aeons</t>
+  </si>
+  <si>
+    <t>Lotus petal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anguished Unmaking  </t>
+  </si>
+  <si>
     <t>Fierce Guardianship</t>
   </si>
   <si>
     <t>Demonic Tutor</t>
   </si>
   <si>
+    <t>Nexus of Fate</t>
+  </si>
+  <si>
+    <t>Bomat Courier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flawless Maneuver  </t>
+  </si>
+  <si>
     <t>Whir of Invention</t>
   </si>
   <si>
     <t>Drown in the Loch</t>
   </si>
   <si>
+    <t>Temporal Mastery</t>
+  </si>
+  <si>
+    <t>Drannith Magistrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teferi's Protection  </t>
+  </si>
+  <si>
     <t>Wizard's Retort</t>
   </si>
   <si>
     <t>Finale of Devastation</t>
   </si>
   <si>
-    <t>Force of Will</t>
+    <t>Beacon of Tomorrows</t>
+  </si>
+  <si>
+    <t>Goblin Tinkerer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toxic Deluge  </t>
+  </si>
+  <si>
+    <t>Dig Through Time</t>
+  </si>
+  <si>
+    <t>Blood Moon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vindicate  </t>
   </si>
   <si>
     <t>Sea Gate Restoration</t>
   </si>
   <si>
-    <t>Dig Through Time</t>
+    <t>Treasure Cruise</t>
+  </si>
+  <si>
+    <t>Thalia, Guardian of Thraben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deadly Rollick  </t>
   </si>
   <si>
     <t>Nature's Lore</t>
   </si>
   <si>
-    <t>Treasure Cruise</t>
+    <t>Expropriate</t>
+  </si>
+  <si>
+    <t>Eidolon of Rhetoric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ad Nauseam  </t>
+  </si>
+  <si>
+    <t>Time Stretch</t>
+  </si>
+  <si>
+    <t>Mana Crypt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chrome Mox  </t>
   </si>
   <si>
     <t>Chrome Mox</t>
@@ -256,103 +625,250 @@
     <t>Three Visits</t>
   </si>
   <si>
+    <t>Temporal Trespass</t>
+  </si>
+  <si>
+    <t>Dockside Extortionist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mana Crypt  </t>
+  </si>
+  <si>
     <t>Everflowing Chalice</t>
   </si>
   <si>
     <t>Day's Undoing</t>
   </si>
   <si>
+    <t>Legion's Landing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basilisk Collar  </t>
+  </si>
+  <si>
     <t>Lodestone Bauble</t>
   </si>
   <si>
     <t>Dream Fracture</t>
   </si>
   <si>
+    <t>Mask of Immolation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sol Ring  </t>
+  </si>
+  <si>
     <t>Lotus Petal</t>
   </si>
   <si>
-    <t>Mana Crypt</t>
+    <t xml:space="preserve">Arcane Signet  </t>
   </si>
   <si>
     <t>Hero's Downfall</t>
   </si>
   <si>
+    <t>Skyclave Apparition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fellwar Stone  </t>
+  </si>
+  <si>
     <t>Mishra's Bauble</t>
   </si>
   <si>
     <t>Maelstrom Pulse</t>
   </si>
   <si>
+    <t>Mox Diamond</t>
+  </si>
+  <si>
+    <t>Gamble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lightning Greaves  </t>
+  </si>
+  <si>
     <t>Mox Amber</t>
   </si>
   <si>
     <t>Toxic Deluge</t>
   </si>
   <si>
-    <t>Mox Diamond</t>
+    <t>Mana Vault</t>
+  </si>
+  <si>
+    <t>Aven Mindcensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orzhov Signet  </t>
   </si>
   <si>
     <t>Windfall</t>
   </si>
   <si>
-    <t>Mox Opal</t>
+    <t>Sol Ring</t>
+  </si>
+  <si>
+    <t>Palace Jailer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swiftfoot Boots  </t>
   </si>
   <si>
     <t>Damnation</t>
   </si>
   <si>
+    <t>Arcane Signet</t>
+  </si>
+  <si>
+    <t>Armory Automaton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Hierarchy  </t>
+  </si>
+  <si>
     <t>Tormod's Crypt</t>
   </si>
   <si>
     <t>Deadly Rollick</t>
   </si>
   <si>
+    <t>Azorius Signet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umezawa's Jitte  </t>
+  </si>
+  <si>
     <t>Urza's Bauble</t>
   </si>
   <si>
     <t>Mystical Teachings</t>
   </si>
   <si>
+    <t>Boros Signet</t>
+  </si>
+  <si>
+    <t>Archon of Emeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sword of Feast and Famine  </t>
+  </si>
+  <si>
     <t>Welding Jar</t>
   </si>
   <si>
+    <t>Fellwar Stone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sword of Fire and Ice  </t>
+  </si>
+  <si>
     <t>Aether Spellbomb</t>
   </si>
   <si>
     <t>Mystic Confluence</t>
   </si>
   <si>
+    <t>Izzet Signet</t>
+  </si>
+  <si>
+    <t>Godo, Bandit Warlord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sword of Light and Shadow  </t>
+  </si>
+  <si>
     <t>Chromatic Sphere</t>
   </si>
   <si>
     <t>Time Spiral</t>
   </si>
   <si>
+    <t>Lightning Greaves</t>
+  </si>
+  <si>
+    <t>Resolute Blademaster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sword of War and Peace  </t>
+  </si>
+  <si>
     <t>Chromatic Star</t>
   </si>
   <si>
+    <t>Mind Stone</t>
+  </si>
+  <si>
+    <t>Angrath's Marauders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batterskull  </t>
+  </si>
+  <si>
     <t>Conjurer's Bauble</t>
   </si>
   <si>
+    <t>Scroll Rack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolas's Citadel  </t>
+  </si>
+  <si>
     <t>Expedition Map</t>
   </si>
   <si>
-    <t>Mana Vault</t>
+    <t>Talisman of Progress</t>
+  </si>
+  <si>
+    <t>Stone Haven Outfitter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Land Tax  </t>
+  </si>
+  <si>
+    <t>Chromatic Lantern</t>
+  </si>
+  <si>
+    <t>Thalia, Heretic Cathar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aura of Silence  </t>
   </si>
   <si>
     <t>Manifold Key</t>
   </si>
   <si>
-    <t>Sol Ring</t>
+    <t>Coalition Relic</t>
+  </si>
+  <si>
+    <t>Zealous Conscripts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phyrexian Arena  </t>
+  </si>
+  <si>
+    <t>Commander's Sphere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Court of Ambition  </t>
   </si>
   <si>
     <t>Voltaic Key</t>
   </si>
   <si>
-    <t>Arcane Signet</t>
-  </si>
-  <si>
-    <t>Fellwar Stone</t>
+    <t>Lithoform Engine</t>
+  </si>
+  <si>
+    <t>Leonin Relic-Warder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Court of Grace  </t>
+  </si>
+  <si>
+    <t>Detention Sphere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smothering Tithe  </t>
   </si>
   <si>
     <t>Grim Monolith</t>
@@ -361,40 +877,79 @@
     <t>Teferi's Puzzle Box</t>
   </si>
   <si>
-    <t>Mind Stone</t>
+    <t>Adarkar Wastes</t>
+  </si>
+  <si>
+    <t>Mortarpod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exquisite Blood  </t>
   </si>
   <si>
     <t>Bayou</t>
   </si>
   <si>
-    <t>Commander's Sphere</t>
+    <t>Ancient Tomb</t>
+  </si>
+  <si>
+    <t>Command Tower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arid Mesa  </t>
   </si>
   <si>
     <t>Bloodstained Mire</t>
   </si>
   <si>
+    <t>Arid Mesa</t>
+  </si>
+  <si>
+    <t>Sacred Foundry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloodstained Mire  </t>
+  </si>
+  <si>
     <t>Krark-Clan Ironworks</t>
   </si>
   <si>
     <t>Breeding Pool</t>
   </si>
   <si>
+    <t>Battlefield Forge</t>
+  </si>
+  <si>
+    <t>Mountain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cabal Coffers  </t>
+  </si>
+  <si>
     <t>Paradox Engine</t>
   </si>
   <si>
     <t>Cavern of Souls</t>
   </si>
   <si>
+    <t xml:space="preserve">Cavern of Souls  </t>
+  </si>
+  <si>
     <t>Academy Ruins</t>
   </si>
   <si>
     <t>Clearwater Pathway</t>
   </si>
   <si>
-    <t>Ancient Tomb</t>
-  </si>
-  <si>
-    <t>Command Tower</t>
+    <t xml:space="preserve">Caves of Koilos  </t>
+  </si>
+  <si>
+    <t>Clifftop Retreat</t>
+  </si>
+  <si>
+    <t>Plains</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City of Brass  </t>
   </si>
   <si>
     <t>Blast Zone</t>
@@ -403,97 +958,214 @@
     <t>Dryad Arbor</t>
   </si>
   <si>
+    <t xml:space="preserve">Command Tower  </t>
+  </si>
+  <si>
     <t>Flooded Strand</t>
   </si>
   <si>
+    <t>Fiery Islet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Field of Ruin  </t>
+  </si>
+  <si>
     <t>Cephalid Coliseum</t>
   </si>
   <si>
     <t>Forest</t>
   </si>
   <si>
+    <t xml:space="preserve">Flooded Strand  </t>
+  </si>
+  <si>
     <t>Darksteel Citadel</t>
   </si>
   <si>
     <t>Geier Reach Sanitarium</t>
   </si>
   <si>
+    <t>Glacial Fortress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Godless Shrine  </t>
+  </si>
+  <si>
     <t>Island</t>
   </si>
   <si>
+    <t>Hall of the Bandit Lord</t>
+  </si>
+  <si>
+    <t>Scalding Tarn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isolated Chapel  </t>
+  </si>
+  <si>
     <t>Inventors' Fair</t>
   </si>
   <si>
     <t>Marsh Flats</t>
   </si>
   <si>
+    <t>Hallowed Fountain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mana Confluence  </t>
+  </si>
+  <si>
     <t xml:space="preserve">Minamo, School at Water's Edge  </t>
   </si>
   <si>
     <t>Misty Rainforest</t>
   </si>
   <si>
+    <t>Hanweir Battlements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marsh Flats  </t>
+  </si>
+  <si>
     <t>Nurturing Peatland</t>
   </si>
   <si>
+    <t>Ancient Den</t>
+  </si>
+  <si>
     <t>Mystic Sanctuary</t>
   </si>
   <si>
     <t>Overgrown Tomb</t>
   </si>
   <si>
+    <t>Eiganjo Castle</t>
+  </si>
+  <si>
     <t>Polluted Delta</t>
   </si>
   <si>
+    <t xml:space="preserve">Plateau  </t>
+  </si>
+  <si>
+    <t>Rugged Prairie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plains  </t>
+  </si>
+  <si>
     <t>Prismatic Vista</t>
   </si>
   <si>
+    <t>Windswept Heath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polluted Delta  </t>
+  </si>
+  <si>
     <t>Riptide Laboratory</t>
   </si>
   <si>
     <t>Reflecting Pool</t>
   </si>
   <si>
-    <t>Scalding Tarn</t>
+    <t>Plateau</t>
+  </si>
+  <si>
+    <t>Snow-Covered Plains</t>
+  </si>
+  <si>
+    <t>Riverglide Pathway</t>
+  </si>
+  <si>
+    <t>Mishra's Factory</t>
   </si>
   <si>
     <t>Seat of the Synod</t>
   </si>
   <si>
+    <t xml:space="preserve">Snow-Covered Plains  </t>
+  </si>
+  <si>
     <t xml:space="preserve">Tectonic Edge  </t>
   </si>
   <si>
     <t>Snow-Covered Forest</t>
   </si>
   <si>
+    <t>Snow-Covered Swamp</t>
+  </si>
+  <si>
     <t>Wasteland</t>
   </si>
   <si>
     <t>Snow-Covered Island</t>
   </si>
   <si>
-    <t>Snow-Covered Swamp</t>
+    <t>Shivan Reef</t>
+  </si>
+  <si>
+    <t>Steam Vents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snow-Covered Swamp  </t>
   </si>
   <si>
     <t>Swamp</t>
   </si>
   <si>
+    <t>Sulfur Falls</t>
+  </si>
+  <si>
     <t>Tropical Island</t>
   </si>
   <si>
+    <t>Tundra</t>
+  </si>
+  <si>
     <t>Underground Sea</t>
   </si>
   <si>
+    <t>Volcanic Island</t>
+  </si>
+  <si>
+    <t>Flagstones of Trokair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swamp  </t>
+  </si>
+  <si>
     <t>Verdant Catacombs</t>
   </si>
   <si>
+    <t xml:space="preserve">Urborg, Tomb of Yawgmoth  </t>
+  </si>
+  <si>
+    <t>Wooded Foothills</t>
+  </si>
+  <si>
+    <t>Great Furnace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vault of Champions  </t>
+  </si>
+  <si>
     <t>Watery Grave</t>
   </si>
   <si>
-    <t>Windswept Heath</t>
-  </si>
-  <si>
-    <t>Wooded Foothills</t>
+    <t>Inspiring Vantage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vault of the Archangel  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verdant Catacombs  </t>
+  </si>
+  <si>
+    <t>Needleverge Pathway // Pillarverge Pathway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wasteland  </t>
   </si>
   <si>
     <t>Yavimaya Hollow</t>
@@ -859,824 +1531,1736 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="C23" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" t="s">
         <v>34</v>
       </c>
-      <c r="B20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="C26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="C27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="C28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="C29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="C30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" t="s">
+        <v>129</v>
+      </c>
+      <c r="E30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="C31" t="s">
+        <v>131</v>
+      </c>
+      <c r="D31" t="s">
+        <v>132</v>
+      </c>
+      <c r="E31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="C32" t="s">
+        <v>136</v>
+      </c>
+      <c r="D32" t="s">
+        <v>137</v>
+      </c>
+      <c r="E32" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>139</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="C33" t="s">
+        <v>141</v>
+      </c>
+      <c r="D33" t="s">
+        <v>142</v>
+      </c>
+      <c r="E33" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="C34" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" t="s">
+        <v>147</v>
+      </c>
+      <c r="E34" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>149</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="C35" t="s">
+        <v>150</v>
+      </c>
+      <c r="D35" t="s">
+        <v>151</v>
+      </c>
+      <c r="E35" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>153</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="C36" t="s">
+        <v>155</v>
+      </c>
+      <c r="D36" t="s">
+        <v>156</v>
+      </c>
+      <c r="E36" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>158</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="C37" t="s">
+        <v>159</v>
+      </c>
+      <c r="D37" t="s">
+        <v>160</v>
+      </c>
+      <c r="E37" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>162</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="C38" t="s">
+        <v>163</v>
+      </c>
+      <c r="D38" t="s">
+        <v>164</v>
+      </c>
+      <c r="E38" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>64</v>
+        <v>166</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="C39" t="s">
+        <v>167</v>
+      </c>
+      <c r="D39" t="s">
+        <v>168</v>
+      </c>
+      <c r="E39" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="B40" t="s">
+        <v>171</v>
+      </c>
+      <c r="C40" t="s">
+        <v>172</v>
+      </c>
+      <c r="D40" t="s">
+        <v>173</v>
+      </c>
+      <c r="E40" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>175</v>
+      </c>
+      <c r="B41" t="s">
+        <v>176</v>
+      </c>
+      <c r="C41" t="s">
+        <v>177</v>
+      </c>
+      <c r="D41" t="s">
+        <v>178</v>
+      </c>
+      <c r="E41" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>180</v>
+      </c>
+      <c r="B42" t="s">
+        <v>181</v>
+      </c>
+      <c r="C42" t="s">
+        <v>182</v>
+      </c>
+      <c r="D42" t="s">
+        <v>183</v>
+      </c>
+      <c r="E42" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>136</v>
+      </c>
+      <c r="B43" t="s">
+        <v>153</v>
+      </c>
+      <c r="C43" t="s">
+        <v>185</v>
+      </c>
+      <c r="D43" t="s">
+        <v>186</v>
+      </c>
+      <c r="E43" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>188</v>
+      </c>
+      <c r="B44" t="s">
+        <v>158</v>
+      </c>
+      <c r="C44" t="s">
+        <v>189</v>
+      </c>
+      <c r="D44" t="s">
+        <v>190</v>
+      </c>
+      <c r="E44" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>185</v>
+      </c>
+      <c r="B45" t="s">
+        <v>192</v>
+      </c>
+      <c r="C45" t="s">
+        <v>193</v>
+      </c>
+      <c r="D45" t="s">
+        <v>194</v>
+      </c>
+      <c r="E45" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>189</v>
+      </c>
+      <c r="B46" t="s">
+        <v>162</v>
+      </c>
+      <c r="C46" t="s">
+        <v>196</v>
+      </c>
+      <c r="D46" t="s">
+        <v>197</v>
+      </c>
+      <c r="E46" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>199</v>
+      </c>
+      <c r="B47" t="s">
+        <v>200</v>
+      </c>
+      <c r="C47" t="s">
+        <v>201</v>
+      </c>
+      <c r="D47" t="s">
+        <v>202</v>
+      </c>
+      <c r="E47" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>204</v>
+      </c>
+      <c r="B48" t="s">
+        <v>205</v>
+      </c>
+      <c r="C48" t="s">
+        <v>199</v>
+      </c>
+      <c r="D48" t="s">
+        <v>206</v>
+      </c>
+      <c r="E48" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>208</v>
+      </c>
+      <c r="B49" t="s">
+        <v>209</v>
+      </c>
+      <c r="C49" t="s">
+        <v>204</v>
+      </c>
+      <c r="D49" t="s">
+        <v>210</v>
+      </c>
+      <c r="E49" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>212</v>
+      </c>
+      <c r="B50" t="s">
+        <v>170</v>
+      </c>
+      <c r="C50" t="s">
+        <v>212</v>
+      </c>
+      <c r="D50" t="s">
+        <v>96</v>
+      </c>
+      <c r="E50" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>197</v>
+      </c>
+      <c r="B51" t="s">
+        <v>214</v>
+      </c>
+      <c r="C51" t="s">
+        <v>197</v>
+      </c>
+      <c r="D51" t="s">
+        <v>215</v>
+      </c>
+      <c r="E51" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>217</v>
+      </c>
+      <c r="B52" t="s">
+        <v>218</v>
+      </c>
+      <c r="C52" t="s">
+        <v>219</v>
+      </c>
+      <c r="D52" t="s">
+        <v>220</v>
+      </c>
+      <c r="E52" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>222</v>
+      </c>
+      <c r="B53" t="s">
+        <v>223</v>
+      </c>
+      <c r="C53" t="s">
+        <v>224</v>
+      </c>
+      <c r="D53" t="s">
+        <v>225</v>
+      </c>
+      <c r="E53" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>219</v>
+      </c>
+      <c r="B54" t="s">
+        <v>227</v>
+      </c>
+      <c r="C54" t="s">
+        <v>228</v>
+      </c>
+      <c r="D54" t="s">
+        <v>229</v>
+      </c>
+      <c r="E54" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>101</v>
+      </c>
+      <c r="B55" t="s">
+        <v>231</v>
+      </c>
+      <c r="C55" t="s">
+        <v>232</v>
+      </c>
+      <c r="D55" t="s">
+        <v>233</v>
+      </c>
+      <c r="E55" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>235</v>
+      </c>
+      <c r="B56" t="s">
+        <v>236</v>
+      </c>
+      <c r="C56" t="s">
+        <v>237</v>
+      </c>
+      <c r="D56" t="s">
+        <v>108</v>
+      </c>
+      <c r="E56" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>239</v>
+      </c>
+      <c r="B57" t="s">
+        <v>240</v>
+      </c>
+      <c r="C57" t="s">
+        <v>241</v>
+      </c>
+      <c r="D57" t="s">
+        <v>242</v>
+      </c>
+      <c r="E57" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>244</v>
+      </c>
+      <c r="B58" t="s">
+        <v>136</v>
+      </c>
+      <c r="C58" t="s">
+        <v>245</v>
+      </c>
+      <c r="D58" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>67</v>
-      </c>
-      <c r="B41" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>69</v>
-      </c>
-      <c r="B42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>71</v>
-      </c>
-      <c r="B43" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>72</v>
-      </c>
-      <c r="B44" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>73</v>
-      </c>
-      <c r="B45" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>75</v>
-      </c>
-      <c r="B46" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>76</v>
-      </c>
-      <c r="B47" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="E58" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>247</v>
+      </c>
+      <c r="B59" t="s">
+        <v>248</v>
+      </c>
+      <c r="C59" t="s">
+        <v>249</v>
+      </c>
+      <c r="D59" t="s">
+        <v>250</v>
+      </c>
+      <c r="E59" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>252</v>
+      </c>
+      <c r="B60" t="s">
+        <v>253</v>
+      </c>
+      <c r="C60" t="s">
+        <v>254</v>
+      </c>
+      <c r="D60" t="s">
+        <v>255</v>
+      </c>
+      <c r="E60" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>257</v>
+      </c>
+      <c r="B61" t="s">
+        <v>185</v>
+      </c>
+      <c r="C61" t="s">
+        <v>258</v>
+      </c>
+      <c r="D61" t="s">
+        <v>259</v>
+      </c>
+      <c r="E61" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>261</v>
+      </c>
+      <c r="B62" t="s">
+        <v>189</v>
+      </c>
+      <c r="C62" t="s">
+        <v>262</v>
+      </c>
+      <c r="D62" t="s">
         <v>78</v>
       </c>
-      <c r="B48" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>80</v>
-      </c>
-      <c r="B49" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>82</v>
-      </c>
-      <c r="B50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>83</v>
-      </c>
-      <c r="B51" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>85</v>
-      </c>
-      <c r="B52" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>87</v>
-      </c>
-      <c r="B53" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>89</v>
-      </c>
-      <c r="B54" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>91</v>
-      </c>
-      <c r="B55" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>93</v>
-      </c>
-      <c r="B56" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>95</v>
-      </c>
-      <c r="B57" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>97</v>
-      </c>
-      <c r="B58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>98</v>
-      </c>
-      <c r="B59" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>100</v>
-      </c>
-      <c r="B60" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>102</v>
-      </c>
-      <c r="B61" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>103</v>
-      </c>
-      <c r="B62" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>104</v>
+        <v>264</v>
       </c>
       <c r="B63" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="C63" t="s">
+        <v>265</v>
+      </c>
+      <c r="D63" t="s">
+        <v>266</v>
+      </c>
+      <c r="E63" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>105</v>
+        <v>224</v>
       </c>
       <c r="B64" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+      <c r="C64" t="s">
+        <v>268</v>
+      </c>
+      <c r="D64" t="s">
+        <v>269</v>
+      </c>
+      <c r="E64" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>106</v>
+        <v>271</v>
       </c>
       <c r="B65" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+      <c r="C65" t="s">
+        <v>272</v>
+      </c>
+      <c r="D65" t="s">
+        <v>273</v>
+      </c>
+      <c r="E65" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>107</v>
+        <v>228</v>
       </c>
       <c r="B66" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+      <c r="C66" t="s">
+        <v>275</v>
+      </c>
+      <c r="D66" t="s">
+        <v>199</v>
+      </c>
+      <c r="E66" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>108</v>
+        <v>277</v>
       </c>
       <c r="B67" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+      <c r="C67" t="s">
+        <v>278</v>
+      </c>
+      <c r="D67" t="s">
+        <v>279</v>
+      </c>
+      <c r="E67" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>109</v>
+        <v>232</v>
       </c>
       <c r="B68" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="C68" t="s">
+        <v>281</v>
+      </c>
+      <c r="D68" t="s">
+        <v>228</v>
+      </c>
+      <c r="E68" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>111</v>
+        <v>283</v>
       </c>
       <c r="B69" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+      <c r="C69" t="s">
+        <v>285</v>
+      </c>
+      <c r="D69" t="s">
+        <v>286</v>
+      </c>
+      <c r="E69" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>113</v>
+        <v>258</v>
       </c>
       <c r="B70" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+      <c r="C70" t="s">
+        <v>289</v>
+      </c>
+      <c r="D70" t="s">
+        <v>290</v>
+      </c>
+      <c r="E70" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>115</v>
+        <v>275</v>
       </c>
       <c r="B71" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="C71" t="s">
+        <v>293</v>
+      </c>
+      <c r="D71" t="s">
+        <v>294</v>
+      </c>
+      <c r="E71" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>117</v>
+        <v>296</v>
       </c>
       <c r="B72" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+      <c r="C72" t="s">
+        <v>298</v>
+      </c>
+      <c r="D72" t="s">
+        <v>299</v>
+      </c>
+      <c r="E72" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>119</v>
+        <v>301</v>
       </c>
       <c r="B73" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+      <c r="C73" t="s">
+        <v>292</v>
+      </c>
+      <c r="D73" t="s">
+        <v>299</v>
+      </c>
+      <c r="E73" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>121</v>
+        <v>304</v>
       </c>
       <c r="B74" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="C74" t="s">
+        <v>302</v>
+      </c>
+      <c r="D74" t="s">
+        <v>299</v>
+      </c>
+      <c r="E74" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>123</v>
+        <v>289</v>
       </c>
       <c r="B75" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+      <c r="C75" t="s">
+        <v>307</v>
+      </c>
+      <c r="D75" t="s">
+        <v>308</v>
+      </c>
+      <c r="E75" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>125</v>
+        <v>310</v>
       </c>
       <c r="B76" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+      <c r="C76" t="s">
+        <v>290</v>
+      </c>
+      <c r="D76" t="s">
+        <v>308</v>
+      </c>
+      <c r="E76" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>120</v>
+        <v>302</v>
       </c>
       <c r="B77" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+      <c r="C77" t="s">
+        <v>314</v>
+      </c>
+      <c r="D77" t="s">
+        <v>308</v>
+      </c>
+      <c r="E77" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>128</v>
+        <v>316</v>
       </c>
       <c r="B78" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="C78" t="s">
+        <v>313</v>
+      </c>
+      <c r="D78" t="s">
+        <v>308</v>
+      </c>
+      <c r="E78" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>130</v>
+        <v>319</v>
       </c>
       <c r="B79" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+      <c r="C79" t="s">
+        <v>321</v>
+      </c>
+      <c r="D79" t="s">
+        <v>308</v>
+      </c>
+      <c r="E79" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>127</v>
+        <v>313</v>
       </c>
       <c r="B80" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+      <c r="C80" t="s">
+        <v>324</v>
+      </c>
+      <c r="D80" t="s">
+        <v>325</v>
+      </c>
+      <c r="E80" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>133</v>
+        <v>327</v>
       </c>
       <c r="B81" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+      <c r="C81" t="s">
+        <v>329</v>
+      </c>
+      <c r="D81" t="s">
+        <v>289</v>
+      </c>
+      <c r="E81" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>135</v>
+        <v>331</v>
       </c>
       <c r="B82" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+      <c r="C82" t="s">
+        <v>333</v>
+      </c>
+      <c r="D82" t="s">
+        <v>302</v>
+      </c>
+      <c r="E82" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>136</v>
+        <v>332</v>
       </c>
       <c r="B83" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+      <c r="C83" t="s">
+        <v>334</v>
+      </c>
+      <c r="D83" t="s">
+        <v>336</v>
+      </c>
+      <c r="E83" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>138</v>
+        <v>337</v>
       </c>
       <c r="B84" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="C84" t="s">
+        <v>332</v>
+      </c>
+      <c r="D84" t="s">
+        <v>339</v>
+      </c>
+      <c r="E84" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>140</v>
+        <v>340</v>
       </c>
       <c r="B85" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+      <c r="C85" t="s">
+        <v>341</v>
+      </c>
+      <c r="D85" t="s">
+        <v>342</v>
+      </c>
+      <c r="E85" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>141</v>
+        <v>344</v>
       </c>
       <c r="B86" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="C86" t="s">
+        <v>340</v>
+      </c>
+      <c r="D86" t="s">
+        <v>345</v>
+      </c>
+      <c r="E86" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>142</v>
+        <v>347</v>
       </c>
       <c r="B87" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="C87" t="s">
+        <v>348</v>
+      </c>
+      <c r="D87" t="s">
+        <v>349</v>
+      </c>
+      <c r="E87" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>144</v>
+        <v>325</v>
       </c>
       <c r="B88" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+      <c r="C88" t="s">
+        <v>351</v>
+      </c>
+      <c r="D88" t="s">
+        <v>352</v>
+      </c>
+      <c r="E88" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>145</v>
+        <v>353</v>
       </c>
       <c r="B89" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+      <c r="C89" t="s">
+        <v>294</v>
+      </c>
+      <c r="D89" t="s">
+        <v>298</v>
+      </c>
+      <c r="E89" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>146</v>
+        <v>355</v>
       </c>
       <c r="B90" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+      <c r="C90" t="s">
+        <v>325</v>
+      </c>
+      <c r="D90" t="s">
+        <v>313</v>
+      </c>
+      <c r="E90" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>148</v>
+        <v>358</v>
       </c>
       <c r="B91" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="C91" t="s">
+        <v>360</v>
+      </c>
+      <c r="D91" t="s">
+        <v>358</v>
+      </c>
+      <c r="E91" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>132</v>
+        <v>323</v>
       </c>
       <c r="B92" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+      <c r="C92" t="s">
+        <v>361</v>
+      </c>
+      <c r="D92" t="s">
+        <v>292</v>
+      </c>
+      <c r="E92" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>132</v>
+        <v>323</v>
       </c>
       <c r="B93" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+      <c r="C93" t="s">
+        <v>364</v>
+      </c>
+      <c r="D93" t="s">
+        <v>293</v>
+      </c>
+      <c r="E93" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>132</v>
+        <v>323</v>
       </c>
       <c r="B94" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+      <c r="C94" t="s">
+        <v>366</v>
+      </c>
+      <c r="D94" t="s">
+        <v>319</v>
+      </c>
+      <c r="E94" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>132</v>
+        <v>323</v>
       </c>
       <c r="B95" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+      <c r="C95" t="s">
+        <v>368</v>
+      </c>
+      <c r="D95" t="s">
+        <v>369</v>
+      </c>
+      <c r="E95" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>132</v>
+        <v>323</v>
       </c>
       <c r="B96" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+      <c r="C96" t="s">
+        <v>345</v>
+      </c>
+      <c r="D96" t="s">
+        <v>307</v>
+      </c>
+      <c r="E96" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>149</v>
+        <v>359</v>
       </c>
       <c r="B97" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+      <c r="C97" t="s">
+        <v>373</v>
+      </c>
+      <c r="D97" t="s">
+        <v>374</v>
+      </c>
+      <c r="E97" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>149</v>
+        <v>359</v>
       </c>
       <c r="B98" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+      <c r="C98" t="s">
+        <v>323</v>
+      </c>
+      <c r="D98" t="s">
+        <v>377</v>
+      </c>
+      <c r="E98" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>149</v>
+        <v>359</v>
       </c>
       <c r="B99" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+      <c r="C99" t="s">
+        <v>323</v>
+      </c>
+      <c r="D99" t="s">
+        <v>328</v>
+      </c>
+      <c r="E99" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>149</v>
+        <v>359</v>
       </c>
       <c r="B100" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+      <c r="C100" t="s">
+        <v>308</v>
+      </c>
+      <c r="D100" t="s">
+        <v>380</v>
+      </c>
+      <c r="E100" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>149</v>
+        <v>359</v>
       </c>
       <c r="B101" t="s">
-        <v>158</v>
+        <v>382</v>
+      </c>
+      <c r="C101" t="s">
+        <v>308</v>
+      </c>
+      <c r="D101" t="s">
+        <v>373</v>
+      </c>
+      <c r="E101" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>

--- a/Datos/Decklists.xlsx
+++ b/Datos/Decklists.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\Proyectos_Python\Commander\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9645ECD-1B05-4269-8D22-92ABEC59F6C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7AC12C-AAB7-4997-AC87-6CCC3BE7E34E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="483">
   <si>
     <t>Emry, Lurker of the Loch</t>
   </si>
@@ -34,7 +34,7 @@
     <t>Winota, Joiner of Forces</t>
   </si>
   <si>
-    <t>Liesa, Shroud of Dusk</t>
+    <t>Winota,_Joiner_of_Forces13012021</t>
   </si>
   <si>
     <t>Walking Ballista</t>
@@ -49,6 +49,9 @@
     <t xml:space="preserve">Walking Ballista  </t>
   </si>
   <si>
+    <t>Abrade (CMR) 410</t>
+  </si>
+  <si>
     <t>Aether Chaser</t>
   </si>
   <si>
@@ -61,6 +64,9 @@
     <t xml:space="preserve">Giver of Runes  </t>
   </si>
   <si>
+    <t>Anafenza, Kin-Tree Spirit (DTK) 2</t>
+  </si>
+  <si>
     <t>Myr Retriever</t>
   </si>
   <si>
@@ -76,6 +82,9 @@
     <t xml:space="preserve">Mother of Runes  </t>
   </si>
   <si>
+    <t>Ancient Den (MB1) 1652</t>
+  </si>
+  <si>
     <t>Snapcaster Mage</t>
   </si>
   <si>
@@ -91,6 +100,9 @@
     <t xml:space="preserve">Serra Ascendant  </t>
   </si>
   <si>
+    <t>Ancient Tomb (UMA) 236</t>
+  </si>
+  <si>
     <t>Spellskite</t>
   </si>
   <si>
@@ -106,6 +118,9 @@
     <t xml:space="preserve">Drannith Magistrate  </t>
   </si>
   <si>
+    <t>Angrath's Marauders (XLN) 132</t>
+  </si>
+  <si>
     <t>Llanowar Elves</t>
   </si>
   <si>
@@ -118,6 +133,9 @@
     <t xml:space="preserve">Grand Abolisher  </t>
   </si>
   <si>
+    <t>Archon of Emeria (ZNR) 4</t>
+  </si>
+  <si>
     <t>Laboratory Maniac</t>
   </si>
   <si>
@@ -133,6 +151,9 @@
     <t xml:space="preserve">Stoneforge Mystic  </t>
   </si>
   <si>
+    <t>Arid Mesa (MM3) 229</t>
+  </si>
+  <si>
     <t>Mirran Spy</t>
   </si>
   <si>
@@ -148,6 +169,9 @@
     <t xml:space="preserve">Archon of Emeria  </t>
   </si>
   <si>
+    <t>Aven Mindcensor (AKH) 5</t>
+  </si>
+  <si>
     <t>Sai, Master Thopterist</t>
   </si>
   <si>
@@ -163,6 +187,9 @@
     <t xml:space="preserve">Aven Mindcensor  </t>
   </si>
   <si>
+    <t>Battlefield Forge (C20) 257</t>
+  </si>
+  <si>
     <t>Scrap Trawler</t>
   </si>
   <si>
@@ -175,6 +202,9 @@
     <t xml:space="preserve">Heliod, Sun-Crowned  </t>
   </si>
   <si>
+    <t>Blade Splicer (2XM) 9</t>
+  </si>
+  <si>
     <t>Spellseeker</t>
   </si>
   <si>
@@ -190,6 +220,9 @@
     <t xml:space="preserve">Kambal, Consul of Allocation  </t>
   </si>
   <si>
+    <t>Blinkmoth Nexus (2XM) 311</t>
+  </si>
+  <si>
     <t>Hullbreacher</t>
   </si>
   <si>
@@ -202,6 +235,9 @@
     <t xml:space="preserve">Kunoros, Hound of Athreos  </t>
   </si>
   <si>
+    <t>Blood Moon (2XM) 118</t>
+  </si>
+  <si>
     <t>Trophy Mage</t>
   </si>
   <si>
@@ -214,6 +250,9 @@
     <t xml:space="preserve">Lurrus of the Dream-Den  </t>
   </si>
   <si>
+    <t>Bloodforged Battle-Axe (C17) 50</t>
+  </si>
+  <si>
     <t>Urza, Lord High Artificer</t>
   </si>
   <si>
@@ -229,6 +268,9 @@
     <t xml:space="preserve">Opposition Agent  </t>
   </si>
   <si>
+    <t>Bloodstained Mire (KTK) 230</t>
+  </si>
+  <si>
     <t>Expedite</t>
   </si>
   <si>
@@ -238,6 +280,9 @@
     <t xml:space="preserve">Ranger-Captain of Eos  </t>
   </si>
   <si>
+    <t>Bonecrusher Giant // Stomp (ELD) 115</t>
+  </si>
+  <si>
     <t>Vendilion Clique</t>
   </si>
   <si>
@@ -250,6 +295,9 @@
     <t xml:space="preserve">Recruiter of the Guard  </t>
   </si>
   <si>
+    <t>Bruse Tarl, Boorish Herder (CMR) 517 F</t>
+  </si>
+  <si>
     <t>Dispel</t>
   </si>
   <si>
@@ -265,6 +313,9 @@
     <t xml:space="preserve">Resplendent Angel  </t>
   </si>
   <si>
+    <t>Captain of the Watch (DDO) 3</t>
+  </si>
+  <si>
     <t>Force Spike</t>
   </si>
   <si>
@@ -280,6 +331,9 @@
     <t xml:space="preserve">Skyclave Apparition  </t>
   </si>
   <si>
+    <t>Cavern of Souls (UMA) 237</t>
+  </si>
+  <si>
     <t>Mental Misstep</t>
   </si>
   <si>
@@ -295,6 +349,9 @@
     <t xml:space="preserve">Tymna the Weaver  </t>
   </si>
   <si>
+    <t>Chrome Mox (2XM) 240</t>
+  </si>
+  <si>
     <t>Teferi, Mage of Zhalfir</t>
   </si>
   <si>
@@ -307,6 +364,9 @@
     <t xml:space="preserve">Vito, Thorn of the Dusk Rose  </t>
   </si>
   <si>
+    <t>Clifftop Retreat (DOM) 239</t>
+  </si>
+  <si>
     <t>Ashiok, Dream Render</t>
   </si>
   <si>
@@ -319,6 +379,9 @@
     <t xml:space="preserve">Crypt Ghast  </t>
   </si>
   <si>
+    <t>Command Tower (CMR) 350</t>
+  </si>
+  <si>
     <t>Pongify</t>
   </si>
   <si>
@@ -331,6 +394,9 @@
     <t xml:space="preserve">Keeper of the Accord  </t>
   </si>
   <si>
+    <t>Darksteel Citadel (2XM) 315</t>
+  </si>
+  <si>
     <t>Oko, Thief of Crowns</t>
   </si>
   <si>
@@ -343,6 +409,9 @@
     <t xml:space="preserve">Linvala, Keeper of Silence  </t>
   </si>
   <si>
+    <t>Dispatch (MM2) 15</t>
+  </si>
+  <si>
     <t>Rapid Hybridization</t>
   </si>
   <si>
@@ -355,6 +424,9 @@
     <t xml:space="preserve">Ranger of Eos  </t>
   </si>
   <si>
+    <t>Dockside Extortionist (C19) 24</t>
+  </si>
+  <si>
     <t>Cyclonic Rift</t>
   </si>
   <si>
@@ -364,6 +436,9 @@
     <t xml:space="preserve">Angel of Destiny  </t>
   </si>
   <si>
+    <t>Drannith Magistrate (IKO) 11</t>
+  </si>
+  <si>
     <t>Spell Pierce</t>
   </si>
   <si>
@@ -379,6 +454,9 @@
     <t xml:space="preserve">Liesa, Shroud of Dusk  </t>
   </si>
   <si>
+    <t>Eidolon of Rhetoric (JOU) 10</t>
+  </si>
+  <si>
     <t>Swan Song</t>
   </si>
   <si>
@@ -391,6 +469,9 @@
     <t xml:space="preserve">Lyra Dawnbringer  </t>
   </si>
   <si>
+    <t>Eiganjo Castle (CHK) 275</t>
+  </si>
+  <si>
     <t>Arcane Denial</t>
   </si>
   <si>
@@ -403,6 +484,9 @@
     <t xml:space="preserve">Felidar Sovereign  </t>
   </si>
   <si>
+    <t>Embercleave (ELD) 120</t>
+  </si>
+  <si>
     <t>Counterspell</t>
   </si>
   <si>
@@ -415,6 +499,9 @@
     <t xml:space="preserve">Ajani, Strength of the Pride  </t>
   </si>
   <si>
+    <t>Enlightened Tutor (EMA) 9</t>
+  </si>
+  <si>
     <t>Capture of Jingzhou</t>
   </si>
   <si>
@@ -424,6 +511,9 @@
     <t xml:space="preserve">Dark Ritual  </t>
   </si>
   <si>
+    <t>Ethersworn Canonist (2XM) 14</t>
+  </si>
+  <si>
     <t>Daze</t>
   </si>
   <si>
@@ -439,6 +529,9 @@
     <t xml:space="preserve">Enlightened Tutor  </t>
   </si>
   <si>
+    <t>Fervent Champion (ELD) 124</t>
+  </si>
+  <si>
     <t>Delay</t>
   </si>
   <si>
@@ -454,6 +547,9 @@
     <t xml:space="preserve">Path to Exile  </t>
   </si>
   <si>
+    <t>Flagstones of Trokair (UMA) 243</t>
+  </si>
+  <si>
     <t>Logic Knot</t>
   </si>
   <si>
@@ -469,6 +565,9 @@
     <t xml:space="preserve">Swords to Plowshares  </t>
   </si>
   <si>
+    <t>Flooded Strand (KTK) 233</t>
+  </si>
+  <si>
     <t>Memory Lapse</t>
   </si>
   <si>
@@ -481,6 +580,9 @@
     <t xml:space="preserve">Vampiric Tutor  </t>
   </si>
   <si>
+    <t>Gamble (UMA) 132</t>
+  </si>
+  <si>
     <t>Merchant Scroll</t>
   </si>
   <si>
@@ -496,6 +598,9 @@
     <t xml:space="preserve">Demonic Tutor  </t>
   </si>
   <si>
+    <t>Geist-Honored Monk (C14) 72</t>
+  </si>
+  <si>
     <t>Muddle the Mixture</t>
   </si>
   <si>
@@ -508,6 +613,9 @@
     <t xml:space="preserve">Winds of Abandon  </t>
   </si>
   <si>
+    <t>Goblin Cratermaker (GRN) 103</t>
+  </si>
+  <si>
     <t>Negate</t>
   </si>
   <si>
@@ -520,6 +628,9 @@
     <t xml:space="preserve">Agadeem's Awakening  </t>
   </si>
   <si>
+    <t>Goblin Rabblemaster (DDT) 46</t>
+  </si>
+  <si>
     <t>Fabricate</t>
   </si>
   <si>
@@ -532,6 +643,9 @@
     <t xml:space="preserve">Anguished Unmaking  </t>
   </si>
   <si>
+    <t>Godo, Bandit Warlord (2XM) 128</t>
+  </si>
+  <si>
     <t>Fierce Guardianship</t>
   </si>
   <si>
@@ -547,6 +661,9 @@
     <t xml:space="preserve">Flawless Maneuver  </t>
   </si>
   <si>
+    <t>Grand Abolisher (E01) 12</t>
+  </si>
+  <si>
     <t>Whir of Invention</t>
   </si>
   <si>
@@ -562,6 +679,9 @@
     <t xml:space="preserve">Teferi's Protection  </t>
   </si>
   <si>
+    <t>Great Furnace (MB1) 1675</t>
+  </si>
+  <si>
     <t>Wizard's Retort</t>
   </si>
   <si>
@@ -577,6 +697,9 @@
     <t xml:space="preserve">Toxic Deluge  </t>
   </si>
   <si>
+    <t>Grenzo, Havoc Raiser (CN2) 54</t>
+  </si>
+  <si>
     <t>Dig Through Time</t>
   </si>
   <si>
@@ -586,6 +709,9 @@
     <t xml:space="preserve">Vindicate  </t>
   </si>
   <si>
+    <t>Inspiring Vantage (KLD) 246</t>
+  </si>
+  <si>
     <t>Sea Gate Restoration</t>
   </si>
   <si>
@@ -598,6 +724,9 @@
     <t xml:space="preserve">Deadly Rollick  </t>
   </si>
   <si>
+    <t>Legion Warboss (GRN) 109</t>
+  </si>
+  <si>
     <t>Nature's Lore</t>
   </si>
   <si>
@@ -610,6 +739,9 @@
     <t xml:space="preserve">Ad Nauseam  </t>
   </si>
   <si>
+    <t>Lena, Selfless Champion (JMP) 117</t>
+  </si>
+  <si>
     <t>Time Stretch</t>
   </si>
   <si>
@@ -619,6 +751,9 @@
     <t xml:space="preserve">Chrome Mox  </t>
   </si>
   <si>
+    <t>Leonin Arbiter (C17) 64</t>
+  </si>
+  <si>
     <t>Chrome Mox</t>
   </si>
   <si>
@@ -634,6 +769,9 @@
     <t xml:space="preserve">Mana Crypt  </t>
   </si>
   <si>
+    <t>Leonin Relic-Warder (MB1) 158</t>
+  </si>
+  <si>
     <t>Everflowing Chalice</t>
   </si>
   <si>
@@ -646,6 +784,9 @@
     <t xml:space="preserve">Basilisk Collar  </t>
   </si>
   <si>
+    <t>Leonin Shikari (C17) 66</t>
+  </si>
+  <si>
     <t>Lodestone Bauble</t>
   </si>
   <si>
@@ -658,12 +799,18 @@
     <t xml:space="preserve">Sol Ring  </t>
   </si>
   <si>
+    <t>Lotus Petal (MB1) 1601</t>
+  </si>
+  <si>
     <t>Lotus Petal</t>
   </si>
   <si>
     <t xml:space="preserve">Arcane Signet  </t>
   </si>
   <si>
+    <t>Magus of the Moon (IMA) 138</t>
+  </si>
+  <si>
     <t>Hero's Downfall</t>
   </si>
   <si>
@@ -673,6 +820,9 @@
     <t xml:space="preserve">Fellwar Stone  </t>
   </si>
   <si>
+    <t>Mana Crypt (2XM) 270</t>
+  </si>
+  <si>
     <t>Mishra's Bauble</t>
   </si>
   <si>
@@ -688,6 +838,9 @@
     <t xml:space="preserve">Lightning Greaves  </t>
   </si>
   <si>
+    <t>Marsh Flats (MM3) 239</t>
+  </si>
+  <si>
     <t>Mox Amber</t>
   </si>
   <si>
@@ -703,6 +856,9 @@
     <t xml:space="preserve">Orzhov Signet  </t>
   </si>
   <si>
+    <t>Mask of Immolation (M20) 151</t>
+  </si>
+  <si>
     <t>Windfall</t>
   </si>
   <si>
@@ -715,6 +871,9 @@
     <t xml:space="preserve">Swiftfoot Boots  </t>
   </si>
   <si>
+    <t>Mentor of the Meek (JMP) 121</t>
+  </si>
+  <si>
     <t>Damnation</t>
   </si>
   <si>
@@ -727,6 +886,9 @@
     <t xml:space="preserve">Talisman of Hierarchy  </t>
   </si>
   <si>
+    <t>Mishra's Factory (2XM) 323</t>
+  </si>
+  <si>
     <t>Tormod's Crypt</t>
   </si>
   <si>
@@ -739,6 +901,9 @@
     <t xml:space="preserve">Umezawa's Jitte  </t>
   </si>
   <si>
+    <t>Mortarpod (MB1) 1612</t>
+  </si>
+  <si>
     <t>Urza's Bauble</t>
   </si>
   <si>
@@ -754,6 +919,9 @@
     <t xml:space="preserve">Sword of Feast and Famine  </t>
   </si>
   <si>
+    <t xml:space="preserve">Mox Opal (2XM) 275  </t>
+  </si>
+  <si>
     <t>Welding Jar</t>
   </si>
   <si>
@@ -763,6 +931,9 @@
     <t xml:space="preserve">Sword of Fire and Ice  </t>
   </si>
   <si>
+    <t>Needleverge Pathway // Pillarverge Pathway (ZNR) 263</t>
+  </si>
+  <si>
     <t>Aether Spellbomb</t>
   </si>
   <si>
@@ -778,6 +949,9 @@
     <t xml:space="preserve">Sword of Light and Shadow  </t>
   </si>
   <si>
+    <t>Open the Armory (CMR) 34</t>
+  </si>
+  <si>
     <t>Chromatic Sphere</t>
   </si>
   <si>
@@ -793,6 +967,9 @@
     <t xml:space="preserve">Sword of War and Peace  </t>
   </si>
   <si>
+    <t>Oust (MB1) 190</t>
+  </si>
+  <si>
     <t>Chromatic Star</t>
   </si>
   <si>
@@ -805,6 +982,9 @@
     <t xml:space="preserve">Batterskull  </t>
   </si>
   <si>
+    <t>Palace Jailer (MB1) 192</t>
+  </si>
+  <si>
     <t>Conjurer's Bauble</t>
   </si>
   <si>
@@ -814,6 +994,9 @@
     <t xml:space="preserve">Bolas's Citadel  </t>
   </si>
   <si>
+    <t>Path to Exile (2XM) 25</t>
+  </si>
+  <si>
     <t>Expedition Map</t>
   </si>
   <si>
@@ -826,6 +1009,9 @@
     <t xml:space="preserve">Land Tax  </t>
   </si>
   <si>
+    <t>Phyrexian Revoker (2XM) 282</t>
+  </si>
+  <si>
     <t>Chromatic Lantern</t>
   </si>
   <si>
@@ -835,6 +1021,9 @@
     <t xml:space="preserve">Aura of Silence  </t>
   </si>
   <si>
+    <t xml:space="preserve">Plateau (3ED) 284  </t>
+  </si>
+  <si>
     <t>Manifold Key</t>
   </si>
   <si>
@@ -847,12 +1036,18 @@
     <t xml:space="preserve">Phyrexian Arena  </t>
   </si>
   <si>
+    <t>Puresteel Paladin (2XM) 26</t>
+  </si>
+  <si>
     <t>Commander's Sphere</t>
   </si>
   <si>
     <t xml:space="preserve">Court of Ambition  </t>
   </si>
   <si>
+    <t>Resolute Blademaster (BFZ) 218</t>
+  </si>
+  <si>
     <t>Voltaic Key</t>
   </si>
   <si>
@@ -865,12 +1060,18 @@
     <t xml:space="preserve">Court of Grace  </t>
   </si>
   <si>
+    <t>Rugged Prairie (2XM) 325</t>
+  </si>
+  <si>
     <t>Detention Sphere</t>
   </si>
   <si>
     <t xml:space="preserve">Smothering Tithe  </t>
   </si>
   <si>
+    <t>Sacred Foundry (GRN) 254</t>
+  </si>
+  <si>
     <t>Grim Monolith</t>
   </si>
   <si>
@@ -886,6 +1087,9 @@
     <t xml:space="preserve">Exquisite Blood  </t>
   </si>
   <si>
+    <t>Scalding Tarn (MM3) 244</t>
+  </si>
+  <si>
     <t>Bayou</t>
   </si>
   <si>
@@ -898,6 +1102,9 @@
     <t xml:space="preserve">Arid Mesa  </t>
   </si>
   <si>
+    <t>Scroll Rack (CMR) 337</t>
+  </si>
+  <si>
     <t>Bloodstained Mire</t>
   </si>
   <si>
@@ -910,6 +1117,9 @@
     <t xml:space="preserve">Bloodstained Mire  </t>
   </si>
   <si>
+    <t>Sigarda's Aid (CMR) 384</t>
+  </si>
+  <si>
     <t>Krark-Clan Ironworks</t>
   </si>
   <si>
@@ -925,6 +1135,9 @@
     <t xml:space="preserve">Cabal Coffers  </t>
   </si>
   <si>
+    <t>Signal Pest (MBS) 131</t>
+  </si>
+  <si>
     <t>Paradox Engine</t>
   </si>
   <si>
@@ -934,6 +1147,9 @@
     <t xml:space="preserve">Cavern of Souls  </t>
   </si>
   <si>
+    <t>Silverblade Paladin (C14) 88</t>
+  </si>
+  <si>
     <t>Academy Ruins</t>
   </si>
   <si>
@@ -943,6 +1159,9 @@
     <t xml:space="preserve">Caves of Koilos  </t>
   </si>
   <si>
+    <t>Skullclamp (C20) 251</t>
+  </si>
+  <si>
     <t>Clifftop Retreat</t>
   </si>
   <si>
@@ -952,6 +1171,9 @@
     <t xml:space="preserve">City of Brass  </t>
   </si>
   <si>
+    <t>Skyclave Apparition (ZNR) 39</t>
+  </si>
+  <si>
     <t>Blast Zone</t>
   </si>
   <si>
@@ -961,6 +1183,9 @@
     <t xml:space="preserve">Command Tower  </t>
   </si>
   <si>
+    <t>Smuggler's Copter (KLD) 235</t>
+  </si>
+  <si>
     <t>Flooded Strand</t>
   </si>
   <si>
@@ -970,6 +1195,9 @@
     <t xml:space="preserve">Field of Ruin  </t>
   </si>
   <si>
+    <t>Sol Ring (CMR) 472</t>
+  </si>
+  <si>
     <t>Cephalid Coliseum</t>
   </si>
   <si>
@@ -979,6 +1207,9 @@
     <t xml:space="preserve">Flooded Strand  </t>
   </si>
   <si>
+    <t>Spirit of the Labyrinth (BNG) 27</t>
+  </si>
+  <si>
     <t>Darksteel Citadel</t>
   </si>
   <si>
@@ -991,6 +1222,9 @@
     <t xml:space="preserve">Godless Shrine  </t>
   </si>
   <si>
+    <t>Sram, Senior Edificer (CMR) 386</t>
+  </si>
+  <si>
     <t>Island</t>
   </si>
   <si>
@@ -1003,6 +1237,9 @@
     <t xml:space="preserve">Isolated Chapel  </t>
   </si>
   <si>
+    <t>Steelshaper's Gift (5DN) 19</t>
+  </si>
+  <si>
     <t>Inventors' Fair</t>
   </si>
   <si>
@@ -1015,6 +1252,9 @@
     <t xml:space="preserve">Mana Confluence  </t>
   </si>
   <si>
+    <t>Stone Haven Outfitter (OGW) 37</t>
+  </si>
+  <si>
     <t xml:space="preserve">Minamo, School at Water's Edge  </t>
   </si>
   <si>
@@ -1027,12 +1267,18 @@
     <t xml:space="preserve">Marsh Flats  </t>
   </si>
   <si>
+    <t>Stoneforge Mystic (2XM) 31</t>
+  </si>
+  <si>
     <t>Nurturing Peatland</t>
   </si>
   <si>
     <t>Ancient Den</t>
   </si>
   <si>
+    <t>Sword of Feast and Famine (2XM) 296</t>
+  </si>
+  <si>
     <t>Mystic Sanctuary</t>
   </si>
   <si>
@@ -1042,6 +1288,9 @@
     <t>Eiganjo Castle</t>
   </si>
   <si>
+    <t>Sword of Fire and Ice (2XM) 297</t>
+  </si>
+  <si>
     <t>Polluted Delta</t>
   </si>
   <si>
@@ -1054,6 +1303,9 @@
     <t xml:space="preserve">Plains  </t>
   </si>
   <si>
+    <t>Sword of Light and Shadow (2XM) 298</t>
+  </si>
+  <si>
     <t>Prismatic Vista</t>
   </si>
   <si>
@@ -1063,6 +1315,9 @@
     <t xml:space="preserve">Polluted Delta  </t>
   </si>
   <si>
+    <t>Swords to Plowshares (CMR) 387</t>
+  </si>
+  <si>
     <t>Riptide Laboratory</t>
   </si>
   <si>
@@ -1075,18 +1330,27 @@
     <t>Snow-Covered Plains</t>
   </si>
   <si>
+    <t>Thalia, Guardian of Thraben (A25) 36</t>
+  </si>
+  <si>
     <t>Riverglide Pathway</t>
   </si>
   <si>
     <t>Mishra's Factory</t>
   </si>
   <si>
+    <t>Thalia, Heretic Cathar (EMN) 46</t>
+  </si>
+  <si>
     <t>Seat of the Synod</t>
   </si>
   <si>
     <t xml:space="preserve">Snow-Covered Plains  </t>
   </si>
   <si>
+    <t>Umezawa's Jitte (BOK) 163</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tectonic Edge  </t>
   </si>
   <si>
@@ -1096,6 +1360,9 @@
     <t>Snow-Covered Swamp</t>
   </si>
   <si>
+    <t>Wasteland (EMA) 248</t>
+  </si>
+  <si>
     <t>Wasteland</t>
   </si>
   <si>
@@ -1105,24 +1372,36 @@
     <t>Shivan Reef</t>
   </si>
   <si>
+    <t>Windswept Heath (KTK) 248</t>
+  </si>
+  <si>
     <t>Steam Vents</t>
   </si>
   <si>
     <t xml:space="preserve">Snow-Covered Swamp  </t>
   </si>
   <si>
+    <t>Winota, Joiner of Forces (IKO) 216</t>
+  </si>
+  <si>
     <t>Swamp</t>
   </si>
   <si>
     <t>Sulfur Falls</t>
   </si>
   <si>
+    <t>Wooded Foothills (KTK) 249</t>
+  </si>
+  <si>
     <t>Tropical Island</t>
   </si>
   <si>
     <t>Tundra</t>
   </si>
   <si>
+    <t>Zealous Conscripts (MM3) 116</t>
+  </si>
+  <si>
     <t>Underground Sea</t>
   </si>
   <si>
@@ -1135,6 +1414,9 @@
     <t xml:space="preserve">Swamp  </t>
   </si>
   <si>
+    <t>Mountain (CMR) 508</t>
+  </si>
+  <si>
     <t>Verdant Catacombs</t>
   </si>
   <si>
@@ -1150,6 +1432,9 @@
     <t xml:space="preserve">Vault of Champions  </t>
   </si>
   <si>
+    <t>Plains (CMR) 504</t>
+  </si>
+  <si>
     <t>Watery Grave</t>
   </si>
   <si>
@@ -1169,6 +1454,21 @@
   </si>
   <si>
     <t>Yavimaya Hollow</t>
+  </si>
+  <si>
+    <t>Emry,_Lurker_of_the_Loch08012021</t>
+  </si>
+  <si>
+    <t>Leovold,_Emissary_of_Trest08012021</t>
+  </si>
+  <si>
+    <t>Narset,_Enlightened_Master08012021</t>
+  </si>
+  <si>
+    <t>Winota,_Joiner_of_Forces08012021</t>
+  </si>
+  <si>
+    <t>Liesa,_Shroud_of_Dusk08012021</t>
   </si>
 </sst>
 </file>
@@ -1531,39 +1831,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>478</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>479</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>480</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>481</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1579,1691 +1883,1992 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="F10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="F12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="F13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
       </c>
       <c r="C14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" t="s">
         <v>61</v>
       </c>
-      <c r="D14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="C16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>57</v>
-      </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="F17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="D18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" t="s">
+        <v>133</v>
+      </c>
+      <c r="F25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E26" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" t="s">
+        <v>142</v>
+      </c>
+      <c r="E27" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28" t="s">
+        <v>147</v>
+      </c>
+      <c r="E28" t="s">
+        <v>148</v>
+      </c>
+      <c r="F28" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" t="s">
+        <v>152</v>
+      </c>
+      <c r="E29" t="s">
+        <v>153</v>
+      </c>
+      <c r="F29" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>155</v>
+      </c>
+      <c r="B30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D30" t="s">
+        <v>157</v>
+      </c>
+      <c r="E30" t="s">
+        <v>158</v>
+      </c>
+      <c r="F30" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>135</v>
+      </c>
+      <c r="B31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" t="s">
+        <v>160</v>
+      </c>
+      <c r="D31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E31" t="s">
+        <v>162</v>
+      </c>
+      <c r="F31" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>164</v>
+      </c>
+      <c r="B32" t="s">
+        <v>165</v>
+      </c>
+      <c r="C32" t="s">
+        <v>166</v>
+      </c>
+      <c r="D32" t="s">
+        <v>167</v>
+      </c>
+      <c r="E32" t="s">
+        <v>168</v>
+      </c>
+      <c r="F32" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>170</v>
+      </c>
+      <c r="B33" t="s">
+        <v>171</v>
+      </c>
+      <c r="C33" t="s">
+        <v>172</v>
+      </c>
+      <c r="D33" t="s">
+        <v>173</v>
+      </c>
+      <c r="E33" t="s">
+        <v>174</v>
+      </c>
+      <c r="F33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>176</v>
+      </c>
+      <c r="B34" t="s">
+        <v>177</v>
+      </c>
+      <c r="C34" t="s">
+        <v>178</v>
+      </c>
+      <c r="D34" t="s">
+        <v>179</v>
+      </c>
+      <c r="E34" t="s">
+        <v>180</v>
+      </c>
+      <c r="F34" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>182</v>
+      </c>
+      <c r="B35" t="s">
+        <v>150</v>
+      </c>
+      <c r="C35" t="s">
+        <v>183</v>
+      </c>
+      <c r="D35" t="s">
+        <v>184</v>
+      </c>
+      <c r="E35" t="s">
+        <v>185</v>
+      </c>
+      <c r="F35" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>187</v>
+      </c>
+      <c r="B36" t="s">
+        <v>188</v>
+      </c>
+      <c r="C36" t="s">
+        <v>189</v>
+      </c>
+      <c r="D36" t="s">
+        <v>190</v>
+      </c>
+      <c r="E36" t="s">
+        <v>191</v>
+      </c>
+      <c r="F36" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>193</v>
+      </c>
+      <c r="B37" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37" t="s">
+        <v>194</v>
+      </c>
+      <c r="D37" t="s">
+        <v>195</v>
+      </c>
+      <c r="E37" t="s">
+        <v>196</v>
+      </c>
+      <c r="F37" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>198</v>
+      </c>
+      <c r="B38" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38" t="s">
+        <v>199</v>
+      </c>
+      <c r="D38" t="s">
+        <v>200</v>
+      </c>
+      <c r="E38" t="s">
+        <v>201</v>
+      </c>
+      <c r="F38" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>203</v>
+      </c>
+      <c r="B39" t="s">
+        <v>170</v>
+      </c>
+      <c r="C39" t="s">
+        <v>204</v>
+      </c>
+      <c r="D39" t="s">
+        <v>205</v>
+      </c>
+      <c r="E39" t="s">
+        <v>206</v>
+      </c>
+      <c r="F39" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>208</v>
+      </c>
+      <c r="B40" t="s">
+        <v>209</v>
+      </c>
+      <c r="C40" t="s">
+        <v>210</v>
+      </c>
+      <c r="D40" t="s">
+        <v>211</v>
+      </c>
+      <c r="E40" t="s">
+        <v>212</v>
+      </c>
+      <c r="F40" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>214</v>
+      </c>
+      <c r="B41" t="s">
+        <v>215</v>
+      </c>
+      <c r="C41" t="s">
+        <v>216</v>
+      </c>
+      <c r="D41" t="s">
+        <v>217</v>
+      </c>
+      <c r="E41" t="s">
+        <v>218</v>
+      </c>
+      <c r="F41" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>220</v>
+      </c>
+      <c r="B42" t="s">
+        <v>221</v>
+      </c>
+      <c r="C42" t="s">
+        <v>222</v>
+      </c>
+      <c r="D42" t="s">
+        <v>223</v>
+      </c>
+      <c r="E42" t="s">
+        <v>224</v>
+      </c>
+      <c r="F42" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>166</v>
+      </c>
+      <c r="B43" t="s">
+        <v>187</v>
+      </c>
+      <c r="C43" t="s">
+        <v>226</v>
+      </c>
+      <c r="D43" t="s">
+        <v>227</v>
+      </c>
+      <c r="E43" t="s">
+        <v>228</v>
+      </c>
+      <c r="F43" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>230</v>
+      </c>
+      <c r="B44" t="s">
+        <v>193</v>
+      </c>
+      <c r="C44" t="s">
+        <v>231</v>
+      </c>
+      <c r="D44" t="s">
+        <v>232</v>
+      </c>
+      <c r="E44" t="s">
+        <v>233</v>
+      </c>
+      <c r="F44" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>226</v>
+      </c>
+      <c r="B45" t="s">
+        <v>235</v>
+      </c>
+      <c r="C45" t="s">
+        <v>236</v>
+      </c>
+      <c r="D45" t="s">
+        <v>237</v>
+      </c>
+      <c r="E45" t="s">
+        <v>238</v>
+      </c>
+      <c r="F45" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>231</v>
+      </c>
+      <c r="B46" t="s">
+        <v>198</v>
+      </c>
+      <c r="C46" t="s">
+        <v>240</v>
+      </c>
+      <c r="D46" t="s">
+        <v>241</v>
+      </c>
+      <c r="E46" t="s">
+        <v>242</v>
+      </c>
+      <c r="F46" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>244</v>
+      </c>
+      <c r="B47" t="s">
+        <v>245</v>
+      </c>
+      <c r="C47" t="s">
+        <v>246</v>
+      </c>
+      <c r="D47" t="s">
+        <v>247</v>
+      </c>
+      <c r="E47" t="s">
+        <v>248</v>
+      </c>
+      <c r="F47" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>250</v>
+      </c>
+      <c r="B48" t="s">
+        <v>251</v>
+      </c>
+      <c r="C48" t="s">
+        <v>244</v>
+      </c>
+      <c r="D48" t="s">
+        <v>252</v>
+      </c>
+      <c r="E48" t="s">
+        <v>253</v>
+      </c>
+      <c r="F48" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>255</v>
+      </c>
+      <c r="B49" t="s">
+        <v>256</v>
+      </c>
+      <c r="C49" t="s">
+        <v>250</v>
+      </c>
+      <c r="D49" t="s">
+        <v>257</v>
+      </c>
+      <c r="E49" t="s">
+        <v>258</v>
+      </c>
+      <c r="F49" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>260</v>
+      </c>
+      <c r="B50" t="s">
+        <v>208</v>
+      </c>
+      <c r="C50" t="s">
+        <v>260</v>
+      </c>
+      <c r="D50" t="s">
+        <v>116</v>
+      </c>
+      <c r="E50" t="s">
+        <v>261</v>
+      </c>
+      <c r="F50" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>241</v>
+      </c>
+      <c r="B51" t="s">
+        <v>263</v>
+      </c>
+      <c r="C51" t="s">
+        <v>241</v>
+      </c>
+      <c r="D51" t="s">
+        <v>264</v>
+      </c>
+      <c r="E51" t="s">
+        <v>265</v>
+      </c>
+      <c r="F51" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>267</v>
+      </c>
+      <c r="B52" t="s">
+        <v>268</v>
+      </c>
+      <c r="C52" t="s">
+        <v>269</v>
+      </c>
+      <c r="D52" t="s">
+        <v>270</v>
+      </c>
+      <c r="E52" t="s">
+        <v>271</v>
+      </c>
+      <c r="F52" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>273</v>
+      </c>
+      <c r="B53" t="s">
+        <v>274</v>
+      </c>
+      <c r="C53" t="s">
+        <v>275</v>
+      </c>
+      <c r="D53" t="s">
+        <v>276</v>
+      </c>
+      <c r="E53" t="s">
+        <v>277</v>
+      </c>
+      <c r="F53" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>269</v>
+      </c>
+      <c r="B54" t="s">
+        <v>279</v>
+      </c>
+      <c r="C54" t="s">
+        <v>280</v>
+      </c>
+      <c r="D54" t="s">
+        <v>281</v>
+      </c>
+      <c r="E54" t="s">
+        <v>282</v>
+      </c>
+      <c r="F54" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>122</v>
+      </c>
+      <c r="B55" t="s">
+        <v>284</v>
+      </c>
+      <c r="C55" t="s">
+        <v>285</v>
+      </c>
+      <c r="D55" t="s">
+        <v>286</v>
+      </c>
+      <c r="E55" t="s">
+        <v>287</v>
+      </c>
+      <c r="F55" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>289</v>
+      </c>
+      <c r="B56" t="s">
+        <v>290</v>
+      </c>
+      <c r="C56" t="s">
+        <v>291</v>
+      </c>
+      <c r="D56" t="s">
+        <v>131</v>
+      </c>
+      <c r="E56" t="s">
+        <v>292</v>
+      </c>
+      <c r="F56" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>294</v>
+      </c>
+      <c r="B57" t="s">
+        <v>295</v>
+      </c>
+      <c r="C57" t="s">
+        <v>296</v>
+      </c>
+      <c r="D57" t="s">
+        <v>297</v>
+      </c>
+      <c r="E57" t="s">
+        <v>298</v>
+      </c>
+      <c r="F57" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>300</v>
+      </c>
+      <c r="B58" t="s">
+        <v>166</v>
+      </c>
+      <c r="C58" t="s">
+        <v>301</v>
+      </c>
+      <c r="D58" t="s">
         <v>79</v>
       </c>
-      <c r="E18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" t="s">
-        <v>89</v>
-      </c>
-      <c r="E20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" t="s">
-        <v>93</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="E58" t="s">
+        <v>302</v>
+      </c>
+      <c r="F58" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>304</v>
+      </c>
+      <c r="B59" t="s">
+        <v>305</v>
+      </c>
+      <c r="C59" t="s">
+        <v>306</v>
+      </c>
+      <c r="D59" t="s">
+        <v>307</v>
+      </c>
+      <c r="E59" t="s">
+        <v>308</v>
+      </c>
+      <c r="F59" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>310</v>
+      </c>
+      <c r="B60" t="s">
+        <v>311</v>
+      </c>
+      <c r="C60" t="s">
+        <v>312</v>
+      </c>
+      <c r="D60" t="s">
+        <v>313</v>
+      </c>
+      <c r="E60" t="s">
+        <v>314</v>
+      </c>
+      <c r="F60" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>316</v>
+      </c>
+      <c r="B61" t="s">
+        <v>226</v>
+      </c>
+      <c r="C61" t="s">
+        <v>317</v>
+      </c>
+      <c r="D61" t="s">
+        <v>318</v>
+      </c>
+      <c r="E61" t="s">
+        <v>319</v>
+      </c>
+      <c r="F61" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>321</v>
+      </c>
+      <c r="B62" t="s">
+        <v>231</v>
+      </c>
+      <c r="C62" t="s">
+        <v>322</v>
+      </c>
+      <c r="D62" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>83</v>
-      </c>
-      <c r="B22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>99</v>
-      </c>
-      <c r="B23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" t="s">
-        <v>105</v>
-      </c>
-      <c r="E24" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>107</v>
-      </c>
-      <c r="B25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" t="s">
-        <v>108</v>
-      </c>
-      <c r="D25" t="s">
-        <v>109</v>
-      </c>
-      <c r="E25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>100</v>
-      </c>
-      <c r="B26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" t="s">
-        <v>111</v>
-      </c>
-      <c r="D26" t="s">
-        <v>112</v>
-      </c>
-      <c r="E26" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>114</v>
-      </c>
-      <c r="B27" t="s">
-        <v>115</v>
-      </c>
-      <c r="C27" t="s">
-        <v>116</v>
-      </c>
-      <c r="D27" t="s">
-        <v>117</v>
-      </c>
-      <c r="E27" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>119</v>
-      </c>
-      <c r="B28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28" t="s">
-        <v>121</v>
-      </c>
-      <c r="E28" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>123</v>
-      </c>
-      <c r="B29" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" t="s">
-        <v>124</v>
-      </c>
-      <c r="D29" t="s">
-        <v>125</v>
-      </c>
-      <c r="E29" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>127</v>
-      </c>
-      <c r="B30" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" t="s">
-        <v>128</v>
-      </c>
-      <c r="D30" t="s">
-        <v>129</v>
-      </c>
-      <c r="E30" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>111</v>
-      </c>
-      <c r="B31" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" t="s">
-        <v>131</v>
-      </c>
-      <c r="D31" t="s">
-        <v>132</v>
-      </c>
-      <c r="E31" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>134</v>
-      </c>
-      <c r="B32" t="s">
-        <v>135</v>
-      </c>
-      <c r="C32" t="s">
-        <v>136</v>
-      </c>
-      <c r="D32" t="s">
-        <v>137</v>
-      </c>
-      <c r="E32" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>139</v>
-      </c>
-      <c r="B33" t="s">
-        <v>140</v>
-      </c>
-      <c r="C33" t="s">
-        <v>141</v>
-      </c>
-      <c r="D33" t="s">
-        <v>142</v>
-      </c>
-      <c r="E33" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>144</v>
-      </c>
-      <c r="B34" t="s">
-        <v>145</v>
-      </c>
-      <c r="C34" t="s">
-        <v>146</v>
-      </c>
-      <c r="D34" t="s">
-        <v>147</v>
-      </c>
-      <c r="E34" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>149</v>
-      </c>
-      <c r="B35" t="s">
-        <v>123</v>
-      </c>
-      <c r="C35" t="s">
-        <v>150</v>
-      </c>
-      <c r="D35" t="s">
-        <v>151</v>
-      </c>
-      <c r="E35" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>153</v>
-      </c>
-      <c r="B36" t="s">
-        <v>154</v>
-      </c>
-      <c r="C36" t="s">
-        <v>155</v>
-      </c>
-      <c r="D36" t="s">
-        <v>156</v>
-      </c>
-      <c r="E36" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>158</v>
-      </c>
-      <c r="B37" t="s">
-        <v>127</v>
-      </c>
-      <c r="C37" t="s">
-        <v>159</v>
-      </c>
-      <c r="D37" t="s">
-        <v>160</v>
-      </c>
-      <c r="E37" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>162</v>
-      </c>
-      <c r="B38" t="s">
-        <v>111</v>
-      </c>
-      <c r="C38" t="s">
-        <v>163</v>
-      </c>
-      <c r="D38" t="s">
-        <v>164</v>
-      </c>
-      <c r="E38" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>166</v>
-      </c>
-      <c r="B39" t="s">
-        <v>139</v>
-      </c>
-      <c r="C39" t="s">
-        <v>167</v>
-      </c>
-      <c r="D39" t="s">
-        <v>168</v>
-      </c>
-      <c r="E39" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>170</v>
-      </c>
-      <c r="B40" t="s">
-        <v>171</v>
-      </c>
-      <c r="C40" t="s">
-        <v>172</v>
-      </c>
-      <c r="D40" t="s">
-        <v>173</v>
-      </c>
-      <c r="E40" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>175</v>
-      </c>
-      <c r="B41" t="s">
-        <v>176</v>
-      </c>
-      <c r="C41" t="s">
-        <v>177</v>
-      </c>
-      <c r="D41" t="s">
-        <v>178</v>
-      </c>
-      <c r="E41" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>180</v>
-      </c>
-      <c r="B42" t="s">
-        <v>181</v>
-      </c>
-      <c r="C42" t="s">
-        <v>182</v>
-      </c>
-      <c r="D42" t="s">
-        <v>183</v>
-      </c>
-      <c r="E42" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>136</v>
-      </c>
-      <c r="B43" t="s">
-        <v>153</v>
-      </c>
-      <c r="C43" t="s">
-        <v>185</v>
-      </c>
-      <c r="D43" t="s">
-        <v>186</v>
-      </c>
-      <c r="E43" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>188</v>
-      </c>
-      <c r="B44" t="s">
-        <v>158</v>
-      </c>
-      <c r="C44" t="s">
-        <v>189</v>
-      </c>
-      <c r="D44" t="s">
-        <v>190</v>
-      </c>
-      <c r="E44" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>185</v>
-      </c>
-      <c r="B45" t="s">
-        <v>192</v>
-      </c>
-      <c r="C45" t="s">
-        <v>193</v>
-      </c>
-      <c r="D45" t="s">
-        <v>194</v>
-      </c>
-      <c r="E45" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>189</v>
-      </c>
-      <c r="B46" t="s">
-        <v>162</v>
-      </c>
-      <c r="C46" t="s">
-        <v>196</v>
-      </c>
-      <c r="D46" t="s">
-        <v>197</v>
-      </c>
-      <c r="E46" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>199</v>
-      </c>
-      <c r="B47" t="s">
-        <v>200</v>
-      </c>
-      <c r="C47" t="s">
-        <v>201</v>
-      </c>
-      <c r="D47" t="s">
-        <v>202</v>
-      </c>
-      <c r="E47" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>204</v>
-      </c>
-      <c r="B48" t="s">
-        <v>205</v>
-      </c>
-      <c r="C48" t="s">
-        <v>199</v>
-      </c>
-      <c r="D48" t="s">
-        <v>206</v>
-      </c>
-      <c r="E48" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>208</v>
-      </c>
-      <c r="B49" t="s">
-        <v>209</v>
-      </c>
-      <c r="C49" t="s">
-        <v>204</v>
-      </c>
-      <c r="D49" t="s">
-        <v>210</v>
-      </c>
-      <c r="E49" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>212</v>
-      </c>
-      <c r="B50" t="s">
-        <v>170</v>
-      </c>
-      <c r="C50" t="s">
-        <v>212</v>
-      </c>
-      <c r="D50" t="s">
-        <v>96</v>
-      </c>
-      <c r="E50" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>197</v>
-      </c>
-      <c r="B51" t="s">
-        <v>214</v>
-      </c>
-      <c r="C51" t="s">
-        <v>197</v>
-      </c>
-      <c r="D51" t="s">
-        <v>215</v>
-      </c>
-      <c r="E51" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>217</v>
-      </c>
-      <c r="B52" t="s">
-        <v>218</v>
-      </c>
-      <c r="C52" t="s">
-        <v>219</v>
-      </c>
-      <c r="D52" t="s">
-        <v>220</v>
-      </c>
-      <c r="E52" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>222</v>
-      </c>
-      <c r="B53" t="s">
-        <v>223</v>
-      </c>
-      <c r="C53" t="s">
-        <v>224</v>
-      </c>
-      <c r="D53" t="s">
-        <v>225</v>
-      </c>
-      <c r="E53" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>219</v>
-      </c>
-      <c r="B54" t="s">
-        <v>227</v>
-      </c>
-      <c r="C54" t="s">
-        <v>228</v>
-      </c>
-      <c r="D54" t="s">
-        <v>229</v>
-      </c>
-      <c r="E54" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>101</v>
-      </c>
-      <c r="B55" t="s">
-        <v>231</v>
-      </c>
-      <c r="C55" t="s">
-        <v>232</v>
-      </c>
-      <c r="D55" t="s">
-        <v>233</v>
-      </c>
-      <c r="E55" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>235</v>
-      </c>
-      <c r="B56" t="s">
-        <v>236</v>
-      </c>
-      <c r="C56" t="s">
-        <v>237</v>
-      </c>
-      <c r="D56" t="s">
-        <v>108</v>
-      </c>
-      <c r="E56" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>239</v>
-      </c>
-      <c r="B57" t="s">
-        <v>240</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="E62" t="s">
+        <v>323</v>
+      </c>
+      <c r="F62" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>325</v>
+      </c>
+      <c r="B63" t="s">
+        <v>244</v>
+      </c>
+      <c r="C63" t="s">
+        <v>326</v>
+      </c>
+      <c r="D63" t="s">
+        <v>327</v>
+      </c>
+      <c r="E63" t="s">
+        <v>328</v>
+      </c>
+      <c r="F63" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>275</v>
+      </c>
+      <c r="B64" t="s">
         <v>241</v>
       </c>
-      <c r="D57" t="s">
-        <v>242</v>
-      </c>
-      <c r="E57" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="C64" t="s">
+        <v>330</v>
+      </c>
+      <c r="D64" t="s">
+        <v>331</v>
+      </c>
+      <c r="E64" t="s">
+        <v>332</v>
+      </c>
+      <c r="F64" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>334</v>
+      </c>
+      <c r="B65" t="s">
+        <v>269</v>
+      </c>
+      <c r="C65" t="s">
+        <v>335</v>
+      </c>
+      <c r="D65" t="s">
+        <v>336</v>
+      </c>
+      <c r="E65" t="s">
+        <v>337</v>
+      </c>
+      <c r="F65" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>280</v>
+      </c>
+      <c r="B66" t="s">
+        <v>280</v>
+      </c>
+      <c r="C66" t="s">
+        <v>339</v>
+      </c>
+      <c r="D66" t="s">
         <v>244</v>
       </c>
-      <c r="B58" t="s">
-        <v>136</v>
-      </c>
-      <c r="C58" t="s">
-        <v>245</v>
-      </c>
-      <c r="D58" t="s">
-        <v>66</v>
-      </c>
-      <c r="E58" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>247</v>
-      </c>
-      <c r="B59" t="s">
-        <v>248</v>
-      </c>
-      <c r="C59" t="s">
-        <v>249</v>
-      </c>
-      <c r="D59" t="s">
-        <v>250</v>
-      </c>
-      <c r="E59" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>252</v>
-      </c>
-      <c r="B60" t="s">
-        <v>253</v>
-      </c>
-      <c r="C60" t="s">
-        <v>254</v>
-      </c>
-      <c r="D60" t="s">
-        <v>255</v>
-      </c>
-      <c r="E60" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>257</v>
-      </c>
-      <c r="B61" t="s">
-        <v>185</v>
-      </c>
-      <c r="C61" t="s">
-        <v>258</v>
-      </c>
-      <c r="D61" t="s">
-        <v>259</v>
-      </c>
-      <c r="E61" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>261</v>
-      </c>
-      <c r="B62" t="s">
-        <v>189</v>
-      </c>
-      <c r="C62" t="s">
-        <v>262</v>
-      </c>
-      <c r="D62" t="s">
-        <v>78</v>
-      </c>
-      <c r="E62" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>264</v>
-      </c>
-      <c r="B63" t="s">
-        <v>199</v>
-      </c>
-      <c r="C63" t="s">
-        <v>265</v>
-      </c>
-      <c r="D63" t="s">
-        <v>266</v>
-      </c>
-      <c r="E63" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>224</v>
-      </c>
-      <c r="B64" t="s">
-        <v>197</v>
-      </c>
-      <c r="C64" t="s">
-        <v>268</v>
-      </c>
-      <c r="D64" t="s">
-        <v>269</v>
-      </c>
-      <c r="E64" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>271</v>
-      </c>
-      <c r="B65" t="s">
-        <v>219</v>
-      </c>
-      <c r="C65" t="s">
-        <v>272</v>
-      </c>
-      <c r="D65" t="s">
-        <v>273</v>
-      </c>
-      <c r="E65" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>228</v>
-      </c>
-      <c r="B66" t="s">
-        <v>228</v>
-      </c>
-      <c r="C66" t="s">
-        <v>275</v>
-      </c>
-      <c r="D66" t="s">
-        <v>199</v>
-      </c>
       <c r="E66" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+      <c r="F66" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>277</v>
+        <v>342</v>
       </c>
       <c r="B67" t="s">
-        <v>232</v>
+        <v>285</v>
       </c>
       <c r="C67" t="s">
-        <v>278</v>
+        <v>343</v>
       </c>
       <c r="D67" t="s">
-        <v>279</v>
+        <v>344</v>
       </c>
       <c r="E67" t="s">
+        <v>345</v>
+      </c>
+      <c r="F67" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>285</v>
+      </c>
+      <c r="B68" t="s">
+        <v>301</v>
+      </c>
+      <c r="C68" t="s">
+        <v>347</v>
+      </c>
+      <c r="D68" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>232</v>
-      </c>
-      <c r="B68" t="s">
-        <v>245</v>
-      </c>
-      <c r="C68" t="s">
-        <v>281</v>
-      </c>
-      <c r="D68" t="s">
-        <v>228</v>
-      </c>
       <c r="E68" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="F68" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>283</v>
+        <v>350</v>
       </c>
       <c r="B69" t="s">
-        <v>284</v>
+        <v>351</v>
       </c>
       <c r="C69" t="s">
-        <v>285</v>
+        <v>352</v>
       </c>
       <c r="D69" t="s">
-        <v>286</v>
+        <v>353</v>
       </c>
       <c r="E69" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+      <c r="F69" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>258</v>
+        <v>317</v>
       </c>
       <c r="B70" t="s">
-        <v>288</v>
+        <v>356</v>
       </c>
       <c r="C70" t="s">
-        <v>289</v>
+        <v>357</v>
       </c>
       <c r="D70" t="s">
-        <v>290</v>
+        <v>358</v>
       </c>
       <c r="E70" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="F70" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>275</v>
+        <v>339</v>
       </c>
       <c r="B71" t="s">
-        <v>292</v>
+        <v>361</v>
       </c>
       <c r="C71" t="s">
-        <v>293</v>
+        <v>362</v>
       </c>
       <c r="D71" t="s">
-        <v>294</v>
+        <v>363</v>
       </c>
       <c r="E71" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+      <c r="F71" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>296</v>
+        <v>366</v>
       </c>
       <c r="B72" t="s">
-        <v>297</v>
+        <v>367</v>
       </c>
       <c r="C72" t="s">
-        <v>298</v>
+        <v>368</v>
       </c>
       <c r="D72" t="s">
-        <v>299</v>
+        <v>369</v>
       </c>
       <c r="E72" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+      <c r="F72" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>301</v>
+        <v>372</v>
       </c>
       <c r="B73" t="s">
-        <v>302</v>
+        <v>373</v>
       </c>
       <c r="C73" t="s">
-        <v>292</v>
+        <v>361</v>
       </c>
       <c r="D73" t="s">
-        <v>299</v>
+        <v>369</v>
       </c>
       <c r="E73" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+      <c r="F73" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>304</v>
+        <v>376</v>
       </c>
       <c r="B74" t="s">
-        <v>305</v>
+        <v>377</v>
       </c>
       <c r="C74" t="s">
-        <v>302</v>
+        <v>373</v>
       </c>
       <c r="D74" t="s">
-        <v>299</v>
+        <v>369</v>
       </c>
       <c r="E74" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+      <c r="F74" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>289</v>
+        <v>357</v>
       </c>
       <c r="B75" t="s">
-        <v>290</v>
+        <v>358</v>
       </c>
       <c r="C75" t="s">
-        <v>307</v>
+        <v>380</v>
       </c>
       <c r="D75" t="s">
-        <v>308</v>
+        <v>381</v>
       </c>
       <c r="E75" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+      <c r="F75" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>310</v>
+        <v>384</v>
       </c>
       <c r="B76" t="s">
-        <v>311</v>
+        <v>385</v>
       </c>
       <c r="C76" t="s">
-        <v>290</v>
+        <v>358</v>
       </c>
       <c r="D76" t="s">
-        <v>308</v>
+        <v>381</v>
       </c>
       <c r="E76" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+      <c r="F76" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>302</v>
+        <v>373</v>
       </c>
       <c r="B77" t="s">
-        <v>313</v>
+        <v>388</v>
       </c>
       <c r="C77" t="s">
-        <v>314</v>
+        <v>389</v>
       </c>
       <c r="D77" t="s">
-        <v>308</v>
+        <v>381</v>
       </c>
       <c r="E77" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+      <c r="F77" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>316</v>
+        <v>392</v>
       </c>
       <c r="B78" t="s">
-        <v>317</v>
+        <v>393</v>
       </c>
       <c r="C78" t="s">
-        <v>313</v>
+        <v>388</v>
       </c>
       <c r="D78" t="s">
-        <v>308</v>
+        <v>381</v>
       </c>
       <c r="E78" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+      <c r="F78" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>319</v>
+        <v>396</v>
       </c>
       <c r="B79" t="s">
-        <v>320</v>
+        <v>397</v>
       </c>
       <c r="C79" t="s">
-        <v>321</v>
+        <v>398</v>
       </c>
       <c r="D79" t="s">
-        <v>308</v>
+        <v>381</v>
       </c>
       <c r="E79" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+      <c r="F79" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>313</v>
+        <v>388</v>
       </c>
       <c r="B80" t="s">
-        <v>323</v>
+        <v>401</v>
       </c>
       <c r="C80" t="s">
-        <v>324</v>
+        <v>402</v>
       </c>
       <c r="D80" t="s">
-        <v>325</v>
+        <v>403</v>
       </c>
       <c r="E80" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+      <c r="F80" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>327</v>
+        <v>406</v>
       </c>
       <c r="B81" t="s">
-        <v>328</v>
+        <v>407</v>
       </c>
       <c r="C81" t="s">
-        <v>329</v>
+        <v>408</v>
       </c>
       <c r="D81" t="s">
-        <v>289</v>
+        <v>357</v>
       </c>
       <c r="E81" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+      <c r="F81" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>331</v>
+        <v>411</v>
       </c>
       <c r="B82" t="s">
-        <v>332</v>
+        <v>412</v>
       </c>
       <c r="C82" t="s">
-        <v>333</v>
+        <v>413</v>
       </c>
       <c r="D82" t="s">
-        <v>302</v>
+        <v>373</v>
       </c>
       <c r="E82" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="F82" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>332</v>
+        <v>412</v>
       </c>
       <c r="B83" t="s">
-        <v>335</v>
+        <v>416</v>
       </c>
       <c r="C83" t="s">
-        <v>334</v>
+        <v>414</v>
       </c>
       <c r="D83" t="s">
-        <v>336</v>
+        <v>417</v>
       </c>
       <c r="E83" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+      <c r="F83" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>337</v>
+        <v>419</v>
       </c>
       <c r="B84" t="s">
-        <v>338</v>
+        <v>420</v>
       </c>
       <c r="C84" t="s">
-        <v>332</v>
+        <v>412</v>
       </c>
       <c r="D84" t="s">
-        <v>339</v>
+        <v>421</v>
       </c>
       <c r="E84" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+      <c r="F84" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>340</v>
+        <v>423</v>
       </c>
       <c r="B85" t="s">
-        <v>340</v>
+        <v>423</v>
       </c>
       <c r="C85" t="s">
-        <v>341</v>
+        <v>424</v>
       </c>
       <c r="D85" t="s">
-        <v>342</v>
+        <v>425</v>
       </c>
       <c r="E85" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+      <c r="F85" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>344</v>
+        <v>428</v>
       </c>
       <c r="B86" t="s">
-        <v>344</v>
+        <v>428</v>
       </c>
       <c r="C86" t="s">
-        <v>340</v>
+        <v>423</v>
       </c>
       <c r="D86" t="s">
-        <v>345</v>
+        <v>429</v>
       </c>
       <c r="E86" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+      <c r="F86" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>347</v>
+        <v>432</v>
       </c>
       <c r="B87" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="C87" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="D87" t="s">
-        <v>349</v>
+        <v>434</v>
       </c>
       <c r="E87" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+      <c r="F87" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>325</v>
+        <v>403</v>
       </c>
       <c r="B88" t="s">
-        <v>347</v>
+        <v>432</v>
       </c>
       <c r="C88" t="s">
-        <v>351</v>
+        <v>437</v>
       </c>
       <c r="D88" t="s">
-        <v>352</v>
+        <v>438</v>
       </c>
       <c r="E88" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+      <c r="F88" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>353</v>
+        <v>440</v>
       </c>
       <c r="B89" t="s">
-        <v>325</v>
+        <v>403</v>
       </c>
       <c r="C89" t="s">
-        <v>294</v>
+        <v>363</v>
       </c>
       <c r="D89" t="s">
-        <v>298</v>
+        <v>368</v>
       </c>
       <c r="E89" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+      <c r="F89" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>355</v>
+        <v>443</v>
       </c>
       <c r="B90" t="s">
-        <v>356</v>
+        <v>444</v>
       </c>
       <c r="C90" t="s">
-        <v>325</v>
+        <v>403</v>
       </c>
       <c r="D90" t="s">
-        <v>313</v>
+        <v>388</v>
       </c>
       <c r="E90" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+      <c r="F90" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>358</v>
+        <v>447</v>
       </c>
       <c r="B91" t="s">
-        <v>359</v>
+        <v>448</v>
       </c>
       <c r="C91" t="s">
-        <v>360</v>
+        <v>449</v>
       </c>
       <c r="D91" t="s">
-        <v>358</v>
+        <v>447</v>
       </c>
       <c r="E91" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+      <c r="F91" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>323</v>
+        <v>401</v>
       </c>
       <c r="B92" t="s">
-        <v>357</v>
+        <v>445</v>
       </c>
       <c r="C92" t="s">
+        <v>451</v>
+      </c>
+      <c r="D92" t="s">
         <v>361</v>
       </c>
-      <c r="D92" t="s">
-        <v>292</v>
-      </c>
       <c r="E92" t="s">
+        <v>452</v>
+      </c>
+      <c r="F92" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>401</v>
+      </c>
+      <c r="B93" t="s">
+        <v>454</v>
+      </c>
+      <c r="C93" t="s">
+        <v>455</v>
+      </c>
+      <c r="D93" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>323</v>
-      </c>
-      <c r="B93" t="s">
-        <v>363</v>
-      </c>
-      <c r="C93" t="s">
-        <v>364</v>
-      </c>
-      <c r="D93" t="s">
-        <v>293</v>
-      </c>
       <c r="E93" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+      <c r="F93" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>323</v>
+        <v>401</v>
       </c>
       <c r="B94" t="s">
-        <v>365</v>
+        <v>457</v>
       </c>
       <c r="C94" t="s">
-        <v>366</v>
+        <v>458</v>
       </c>
       <c r="D94" t="s">
-        <v>319</v>
+        <v>396</v>
       </c>
       <c r="E94" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+      <c r="F94" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>323</v>
+        <v>401</v>
       </c>
       <c r="B95" t="s">
-        <v>367</v>
+        <v>460</v>
       </c>
       <c r="C95" t="s">
-        <v>368</v>
+        <v>461</v>
       </c>
       <c r="D95" t="s">
-        <v>369</v>
+        <v>462</v>
       </c>
       <c r="E95" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+      <c r="F95" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>323</v>
+        <v>401</v>
       </c>
       <c r="B96" t="s">
-        <v>371</v>
+        <v>465</v>
       </c>
       <c r="C96" t="s">
-        <v>345</v>
+        <v>429</v>
       </c>
       <c r="D96" t="s">
-        <v>307</v>
+        <v>380</v>
       </c>
       <c r="E96" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+      <c r="F96" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>359</v>
+        <v>448</v>
       </c>
       <c r="B97" t="s">
-        <v>358</v>
+        <v>447</v>
       </c>
       <c r="C97" t="s">
-        <v>373</v>
+        <v>467</v>
       </c>
       <c r="D97" t="s">
-        <v>374</v>
+        <v>468</v>
       </c>
       <c r="E97" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+      <c r="F97" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>359</v>
+        <v>448</v>
       </c>
       <c r="B98" t="s">
-        <v>376</v>
+        <v>471</v>
       </c>
       <c r="C98" t="s">
-        <v>323</v>
+        <v>401</v>
       </c>
       <c r="D98" t="s">
-        <v>377</v>
+        <v>472</v>
       </c>
       <c r="E98" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+      <c r="F98" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>359</v>
+        <v>448</v>
       </c>
       <c r="B99" t="s">
-        <v>345</v>
+        <v>429</v>
       </c>
       <c r="C99" t="s">
-        <v>323</v>
+        <v>401</v>
       </c>
       <c r="D99" t="s">
-        <v>328</v>
+        <v>407</v>
       </c>
       <c r="E99" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+      <c r="F99" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>359</v>
+        <v>448</v>
       </c>
       <c r="B100" t="s">
-        <v>373</v>
+        <v>467</v>
       </c>
       <c r="C100" t="s">
-        <v>308</v>
+        <v>381</v>
       </c>
       <c r="D100" t="s">
-        <v>380</v>
+        <v>475</v>
       </c>
       <c r="E100" t="s">
+        <v>476</v>
+      </c>
+      <c r="F100" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>448</v>
+      </c>
+      <c r="B101" t="s">
+        <v>477</v>
+      </c>
+      <c r="C101" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>359</v>
-      </c>
-      <c r="B101" t="s">
-        <v>382</v>
-      </c>
-      <c r="C101" t="s">
-        <v>308</v>
-      </c>
       <c r="D101" t="s">
-        <v>373</v>
+        <v>467</v>
       </c>
       <c r="E101" t="s">
-        <v>345</v>
+        <v>429</v>
+      </c>
+      <c r="F101" t="s">
+        <v>470</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Datos/Decklists.xlsx
+++ b/Datos/Decklists.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\Proyectos_Python\Commander\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB15876-2951-47EA-8C68-2005A9C1320E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE2D17D-9138-4F6F-A32C-73D8EBA559CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2140,9 +2140,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2154,9 +2156,10 @@
     <col min="6" max="6" width="50.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2181,8 +2184,9 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2208,7 +2212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -2234,7 +2238,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -2260,7 +2264,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -2286,7 +2290,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -2312,7 +2316,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -2338,7 +2342,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -2364,7 +2368,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -2390,7 +2394,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -2416,7 +2420,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>78</v>
       </c>
@@ -2442,7 +2446,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>85</v>
       </c>
@@ -2468,7 +2472,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2494,7 +2498,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>100</v>
       </c>
@@ -2520,7 +2524,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>108</v>
       </c>
@@ -2546,7 +2550,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>87</v>
       </c>
